--- a/working_draft/data-model/ONE Record data model v12.9.xlsx
+++ b/working_draft/data-model/ONE Record data model v12.9.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrab\Documents\Github\ONE-Record\CSC_adopted_March_2019\data-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrab\Documents\Github\ONE-Record\working_draft\data-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A8F13A-9BCD-4BDF-99D2-AE5777EAFB2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA7F46F-04C3-41E9-B419-E0665A8330F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SchemaSpecifications" sheetId="31" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SchemaSpecifications!$A$3:$N$477</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SchemaSpecifications!$A$3:$N$476</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Patrick Murray - Personal View" guid="{E422D10D-9C2B-454B-AFCD-871CD9035CE7}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="597" tabRatio="802" activeSheetId="3"/>
     <customWorkbookView name="Constantin Syridis - Personal View" guid="{4858CC2B-A96C-4668-8DB3-ED537C11C704}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1026" windowHeight="500" tabRatio="802" activeSheetId="1"/>
-    <customWorkbookView name="Patrick Murray - Personal View" guid="{E422D10D-9C2B-454B-AFCD-871CD9035CE7}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="597" tabRatio="802" activeSheetId="3"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="631">
   <si>
     <t/>
   </si>
@@ -1389,9 +1389,6 @@
     <t>Details of piece(s)</t>
   </si>
   <si>
-    <t>PIECE_GROUPING_TOTALS</t>
-  </si>
-  <si>
     <t>TotalPrepaidCharges</t>
   </si>
   <si>
@@ -1719,9 +1716,6 @@
     <t>Details of individual transport segments</t>
   </si>
   <si>
-    <t>House waybill line totals</t>
-  </si>
-  <si>
     <t>Total weight charge amount (prepaid)</t>
   </si>
   <si>
@@ -1756,9 +1750,6 @@
   </si>
   <si>
     <t>Total collect charges amount</t>
-  </si>
-  <si>
-    <t>HouseWaybillLineTotals</t>
   </si>
   <si>
     <t xml:space="preserve">Location latitude </t>
@@ -2622,10 +2613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N477"/>
+  <dimension ref="A1:N476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A292" sqref="A292:XFD292"/>
+    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A383" sqref="A383:XFD383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2650,7 +2641,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B1" s="30"/>
       <c r="D1" s="5"/>
@@ -2698,10 +2689,10 @@
         <v>29</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>25</v>
@@ -2710,7 +2701,7 @@
         <v>128</v>
       </c>
       <c r="J4" s="59" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="K4" s="59" t="s">
         <v>26</v>
@@ -2726,7 +2717,7 @@
     <row r="5" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="31"/>
       <c r="C5" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E5" s="31">
         <v>0</v>
@@ -2735,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>0</v>
@@ -2751,21 +2742,21 @@
         <v>0</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="32"/>
       <c r="C6" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="51">
         <v>1</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>0</v>
@@ -2790,14 +2781,14 @@
       <c r="A7" s="13"/>
       <c r="B7" s="32"/>
       <c r="C7" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="51">
         <v>1</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>0</v>
@@ -2815,7 +2806,7 @@
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="17" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2865,7 +2856,7 @@
         <v>58</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>155</v>
@@ -2894,7 +2885,7 @@
         <v>69</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>155</v>
@@ -2923,7 +2914,7 @@
         <v>59</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>155</v>
@@ -2964,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2985,7 +2976,7 @@
         <v>409</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>155</v>
@@ -3016,7 +3007,7 @@
         <v>99</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>155</v>
@@ -3056,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -3075,7 +3066,7 @@
         <v>60</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>155</v>
@@ -3104,7 +3095,7 @@
         <v>61</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>155</v>
@@ -3133,7 +3124,7 @@
         <v>62</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>155</v>
@@ -3162,7 +3153,7 @@
         <v>15</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J22" s="31" t="s">
         <v>155</v>
@@ -3243,7 +3234,7 @@
         <v>358</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>155</v>
@@ -3254,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -3275,7 +3266,7 @@
         <v>359</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J26" s="31" t="s">
         <v>155</v>
@@ -3286,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -3307,7 +3298,7 @@
         <v>360</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>155</v>
@@ -3425,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>0</v>
@@ -3573,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -3605,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -3639,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -3691,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>0</v>
@@ -3817,7 +3808,7 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -3881,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -4241,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I57" s="18" t="s">
         <v>0</v>
@@ -4255,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -4419,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="17" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -4600,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -4618,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I69" s="18"/>
       <c r="J69" s="32" t="s">
@@ -4630,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -4728,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="17" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -4796,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="N74" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -4898,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="N77" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="79" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -4961,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="N80" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -4977,7 +4968,7 @@
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I81" s="15" t="s">
         <v>104</v>
@@ -5054,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="N84" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -5075,7 +5066,7 @@
         <v>389</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J85" s="31" t="s">
         <v>155</v>
@@ -5151,7 +5142,7 @@
       </c>
       <c r="M88" s="13"/>
       <c r="N88" s="17" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="89" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -5571,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="N102" s="17" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="103" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -5671,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="N105" s="17" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="106" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -5910,7 +5901,7 @@
         <v>63</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J113" s="31" t="s">
         <v>155</v>
@@ -6061,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="N118" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="119" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -6119,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="121" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -6148,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="N121" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="122" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -6351,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="N128" s="17" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="129" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -6438,7 +6429,7 @@
       </c>
       <c r="M131" s="13"/>
       <c r="N131" s="17" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="132" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -6549,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="N136" s="17" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="137" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -6583,7 +6574,7 @@
       </c>
       <c r="M137" s="13"/>
       <c r="N137" s="17" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="138" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -6899,7 +6890,7 @@
       </c>
       <c r="M147" s="13"/>
       <c r="N147" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="148" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -6933,7 +6924,7 @@
       </c>
       <c r="M148" s="13"/>
       <c r="N148" s="17" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="149" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -7056,7 +7047,7 @@
       </c>
       <c r="M152" s="13"/>
       <c r="N152" s="17" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="153" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -7141,7 +7132,7 @@
       </c>
       <c r="M155" s="13"/>
       <c r="N155" s="17" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="156" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -7171,7 +7162,7 @@
       </c>
       <c r="M156" s="13"/>
       <c r="N156" s="17" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="157" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -7203,7 +7194,7 @@
       </c>
       <c r="M157" s="13"/>
       <c r="N157" s="17" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="158" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -7329,7 +7320,7 @@
       </c>
       <c r="G162" s="15"/>
       <c r="H162" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I162" s="15" t="s">
         <v>433</v>
@@ -7340,7 +7331,7 @@
       <c r="K162" s="31"/>
       <c r="L162" s="31"/>
       <c r="N162" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="163" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7356,7 +7347,7 @@
       </c>
       <c r="G163" s="15"/>
       <c r="H163" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I163" s="15" t="s">
         <v>433</v>
@@ -7367,7 +7358,7 @@
       <c r="K163" s="31"/>
       <c r="L163" s="31"/>
       <c r="N163" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="164" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7396,7 +7387,7 @@
         <v>17</v>
       </c>
       <c r="N164" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="165" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7653,7 +7644,7 @@
         <v>17</v>
       </c>
       <c r="N173" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="174" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7735,7 +7726,7 @@
       </c>
       <c r="G177" s="13"/>
       <c r="H177" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I177" s="18"/>
       <c r="J177" s="32" t="s">
@@ -7771,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="N178" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="179" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7942,7 +7933,7 @@
       </c>
       <c r="M185" s="13"/>
       <c r="N185" s="17" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="186" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8109,7 +8100,7 @@
       </c>
       <c r="M190" s="13"/>
       <c r="N190" s="17" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="191" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8127,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="H191" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I191" s="18"/>
       <c r="J191" s="32" t="s">
@@ -8158,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="H192" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I192" s="18"/>
       <c r="J192" s="32" t="s">
@@ -8202,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="N193" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="194" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8251,10 +8242,10 @@
         <v>0</v>
       </c>
       <c r="H195" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J195" s="31" t="s">
         <v>155</v>
@@ -8266,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="N195" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="196" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -8285,7 +8276,7 @@
         <v>423</v>
       </c>
       <c r="I196" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J196" s="31" t="s">
         <v>155</v>
@@ -8293,7 +8284,7 @@
       <c r="K196" s="31"/>
       <c r="L196" s="31"/>
       <c r="N196" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
@@ -8478,7 +8469,7 @@
       </c>
       <c r="M204" s="13"/>
       <c r="N204" s="17" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="205" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -8512,7 +8503,7 @@
       </c>
       <c r="M205" s="13"/>
       <c r="N205" s="17" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="206" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -8563,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="H207" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I207" s="15"/>
       <c r="J207" s="31" t="s">
@@ -8576,7 +8567,7 @@
         <v>17</v>
       </c>
       <c r="N207" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="208" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8588,7 +8579,7 @@
         <v>2</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G208" s="18" t="s">
         <v>0</v>
@@ -8607,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="N208" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="209" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8619,7 +8610,7 @@
         <v>2</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G209" s="18" t="s">
         <v>0</v>
@@ -8638,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="N209" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="210" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8650,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G210" s="18" t="s">
         <v>0</v>
@@ -8669,7 +8660,7 @@
         <v>17</v>
       </c>
       <c r="N210" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="211" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8681,7 +8672,7 @@
         <v>2</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G211" s="18" t="s">
         <v>0</v>
@@ -8700,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="N211" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="212" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -8712,7 +8703,7 @@
         <v>2</v>
       </c>
       <c r="F212" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G212" s="15" t="s">
         <v>0</v>
@@ -8733,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="N212" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
@@ -8793,7 +8784,7 @@
       <c r="L215" s="32"/>
       <c r="M215" s="13"/>
       <c r="N215" s="17" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="216" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -8854,7 +8845,7 @@
       </c>
       <c r="M217" s="13"/>
       <c r="N217" s="17" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="218" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -8888,7 +8879,7 @@
       </c>
       <c r="M218" s="13"/>
       <c r="N218" s="17" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="219" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -8922,7 +8913,7 @@
       </c>
       <c r="M219" s="13"/>
       <c r="N219" s="17" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="220" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9066,7 +9057,7 @@
       <c r="L225" s="32"/>
       <c r="M225" s="13"/>
       <c r="N225" s="17" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="226" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9082,7 +9073,7 @@
       </c>
       <c r="G226" s="18"/>
       <c r="H226" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I226" s="18"/>
       <c r="J226" s="32" t="s">
@@ -9093,7 +9084,7 @@
       </c>
       <c r="L226" s="32"/>
       <c r="N226" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="227" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9122,7 +9113,7 @@
       </c>
       <c r="L227" s="31"/>
       <c r="N227" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="228" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9149,7 +9140,7 @@
       </c>
       <c r="L228" s="32"/>
       <c r="N228" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="229" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -9183,7 +9174,7 @@
       </c>
       <c r="M229" s="13"/>
       <c r="N229" s="17" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="230" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9237,7 +9228,7 @@
         <v>17</v>
       </c>
       <c r="N231" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="232" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9262,7 +9253,7 @@
       <c r="K232" s="32"/>
       <c r="L232" s="32"/>
       <c r="N232" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="233" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9278,7 +9269,7 @@
       </c>
       <c r="G233" s="15"/>
       <c r="H233" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I233" s="15" t="s">
         <v>104</v>
@@ -9289,7 +9280,7 @@
       <c r="K233" s="31"/>
       <c r="L233" s="31"/>
       <c r="N233" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="234" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -9319,7 +9310,7 @@
       </c>
       <c r="M234" s="13"/>
       <c r="N234" s="17" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="235" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -9349,7 +9340,7 @@
       </c>
       <c r="M235" s="13"/>
       <c r="N235" s="17" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="236" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9459,7 +9450,7 @@
         <v>17</v>
       </c>
       <c r="N240" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="241" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9475,7 +9466,7 @@
       </c>
       <c r="G241" s="15"/>
       <c r="H241" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I241" s="15" t="s">
         <v>27</v>
@@ -9502,7 +9493,7 @@
       </c>
       <c r="G242" s="15"/>
       <c r="H242" s="20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I242" s="15" t="s">
         <v>27</v>
@@ -9529,7 +9520,7 @@
       </c>
       <c r="G243" s="15"/>
       <c r="H243" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I243" s="15"/>
       <c r="J243" s="31" t="s">
@@ -9540,7 +9531,7 @@
         <v>17</v>
       </c>
       <c r="N243" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="244" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -9554,7 +9545,7 @@
         <v>2</v>
       </c>
       <c r="F244" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G244" s="18"/>
       <c r="H244" s="22" t="s">
@@ -9568,7 +9559,7 @@
       <c r="L244" s="32"/>
       <c r="M244" s="13"/>
       <c r="N244" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="245" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9580,7 +9571,7 @@
         <v>2</v>
       </c>
       <c r="F245" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G245" s="18"/>
       <c r="H245" s="22" t="s">
@@ -9593,7 +9584,7 @@
       <c r="K245" s="32"/>
       <c r="L245" s="32"/>
       <c r="N245" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="246" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9605,7 +9596,7 @@
         <v>2</v>
       </c>
       <c r="F246" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G246" s="18"/>
       <c r="H246" s="22" t="s">
@@ -9622,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="N246" s="17" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="247" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9636,7 +9627,7 @@
         <v>2</v>
       </c>
       <c r="F247" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G247" s="15"/>
       <c r="H247" s="24" t="s">
@@ -9653,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="N247" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="248" spans="1:14" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -9687,7 +9678,7 @@
       </c>
       <c r="M248" s="13"/>
       <c r="N248" s="19" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="249" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -9721,7 +9712,7 @@
       </c>
       <c r="M249" s="13"/>
       <c r="N249" s="19" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="250" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9781,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="N251" s="19" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="252" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9797,7 +9788,7 @@
       </c>
       <c r="G252" s="18"/>
       <c r="H252" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I252" s="18"/>
       <c r="J252" s="32" t="s">
@@ -9810,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="N252" s="19" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="253" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9871,7 +9862,7 @@
       </c>
       <c r="M254" s="13"/>
       <c r="N254" s="17" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="255" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9991,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="N258" s="17" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="259" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10117,7 +10108,7 @@
         <v>17</v>
       </c>
       <c r="N263" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="264" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -10135,7 +10126,7 @@
       </c>
       <c r="G264" s="18"/>
       <c r="H264" s="16" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I264" s="18"/>
       <c r="J264" s="32" t="s">
@@ -10147,7 +10138,7 @@
       <c r="L264" s="32"/>
       <c r="M264" s="13"/>
       <c r="N264" s="17" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="265" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10204,7 +10195,7 @@
       <c r="L266" s="32"/>
       <c r="M266" s="13"/>
       <c r="N266" s="17" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="267" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10229,7 +10220,7 @@
       <c r="K267" s="32"/>
       <c r="L267" s="32"/>
       <c r="N267" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="268" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -10493,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="H277" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I277" s="18"/>
       <c r="J277" s="32" t="s">
@@ -10505,7 +10496,7 @@
       </c>
       <c r="M277" s="13"/>
       <c r="N277" s="17" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="278" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10523,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="H278" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I278" s="18"/>
       <c r="J278" s="32" t="s">
@@ -10568,7 +10559,7 @@
       </c>
       <c r="M279" s="13"/>
       <c r="N279" s="17" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="280" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -10604,7 +10595,7 @@
       </c>
       <c r="M280" s="13"/>
       <c r="N280" s="17" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="281" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10622,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="H281" s="16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I281" s="18"/>
       <c r="J281" s="32" t="s">
@@ -10635,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="N281" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="282" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10666,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="N282" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="283" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -10716,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="H284" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I284" s="15" t="s">
         <v>433</v>
@@ -10731,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="N284" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="285" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -10811,7 +10802,7 @@
         <v>271</v>
       </c>
       <c r="H287" s="65" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I287" s="35" t="s">
         <v>104</v>
@@ -10884,7 +10875,7 @@
       </c>
       <c r="L289" s="50"/>
       <c r="N289" s="66" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="290" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -10910,7 +10901,7 @@
       <c r="K290" s="31"/>
       <c r="L290" s="50"/>
       <c r="N290" s="66" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="291" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -10928,7 +10919,7 @@
         <v>271</v>
       </c>
       <c r="H291" s="65" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I291" s="35" t="s">
         <v>394</v>
@@ -10961,7 +10952,7 @@
         <v>271</v>
       </c>
       <c r="H292" s="65" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I292" s="35" t="s">
         <v>28</v>
@@ -11016,7 +11007,7 @@
         <v>271</v>
       </c>
       <c r="H294" s="65" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I294" s="35" t="s">
         <v>291</v>
@@ -11103,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="H297" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I297" s="18"/>
       <c r="J297" s="32" t="s">
@@ -11117,7 +11108,7 @@
       </c>
       <c r="M297" s="13"/>
       <c r="N297" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="298" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -11137,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="H298" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I298" s="18"/>
       <c r="J298" s="32" t="s">
@@ -11151,7 +11142,7 @@
       </c>
       <c r="M298" s="13"/>
       <c r="N298" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="299" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -11237,7 +11228,7 @@
         <v>93</v>
       </c>
       <c r="I301" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J301" s="31" t="s">
         <v>155</v>
@@ -11335,7 +11326,7 @@
         <v>93</v>
       </c>
       <c r="I304" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J304" s="31" t="s">
         <v>155</v>
@@ -11433,7 +11424,7 @@
         <v>93</v>
       </c>
       <c r="I307" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J307" s="31" t="s">
         <v>155</v>
@@ -11463,7 +11454,7 @@
         <v>271</v>
       </c>
       <c r="H308" s="65" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I308" s="35"/>
       <c r="J308" s="62" t="s">
@@ -11486,7 +11477,7 @@
         <v>2</v>
       </c>
       <c r="F309" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G309" s="15"/>
       <c r="H309" s="24" t="s">
@@ -11531,7 +11522,7 @@
       </c>
       <c r="M310" s="13"/>
       <c r="N310" s="17" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="311" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -11633,7 +11624,7 @@
         <v>2</v>
       </c>
       <c r="F314" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G314" s="15"/>
       <c r="H314" s="24" t="s">
@@ -11718,7 +11709,7 @@
         <v>2</v>
       </c>
       <c r="F317" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G317" s="15"/>
       <c r="H317" s="24" t="s">
@@ -11809,7 +11800,7 @@
         <v>93</v>
       </c>
       <c r="I320" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J320" s="31" t="s">
         <v>155</v>
@@ -11849,7 +11840,7 @@
       </c>
       <c r="M321" s="13"/>
       <c r="N321" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="322" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -11897,7 +11888,7 @@
         <v>271</v>
       </c>
       <c r="H323" s="65" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I323" s="35"/>
       <c r="J323" s="62" t="s">
@@ -11920,7 +11911,7 @@
         <v>2</v>
       </c>
       <c r="F324" s="35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G324" s="15"/>
       <c r="H324" s="24" t="s">
@@ -11958,7 +11949,7 @@
         <v>137</v>
       </c>
       <c r="I325" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J325" s="31" t="s">
         <v>155</v>
@@ -11968,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="N325" s="14" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="326" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -11989,7 +11980,7 @@
         <v>138</v>
       </c>
       <c r="I326" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J326" s="31" t="s">
         <v>155</v>
@@ -11999,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="N326" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="327" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12020,7 +12011,7 @@
         <v>139</v>
       </c>
       <c r="I327" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J327" s="31" t="s">
         <v>155</v>
@@ -12032,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="N327" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="328" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12053,7 +12044,7 @@
         <v>135</v>
       </c>
       <c r="I328" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J328" s="31" t="s">
         <v>155</v>
@@ -12063,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="N328" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="329" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12084,7 +12075,7 @@
         <v>136</v>
       </c>
       <c r="I329" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J329" s="31" t="s">
         <v>155</v>
@@ -12094,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="N329" s="14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="330" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12112,10 +12103,10 @@
         <v>0</v>
       </c>
       <c r="H330" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J330" s="31" t="s">
         <v>155</v>
@@ -12127,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="N330" s="14" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="331" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12139,7 +12130,7 @@
         <v>2</v>
       </c>
       <c r="F331" s="35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G331" s="15"/>
       <c r="H331" s="24" t="s">
@@ -12175,7 +12166,7 @@
         <v>137</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J332" s="31" t="s">
         <v>155</v>
@@ -12185,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="N332" s="14" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="333" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12206,7 +12197,7 @@
         <v>138</v>
       </c>
       <c r="I333" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J333" s="31" t="s">
         <v>155</v>
@@ -12216,7 +12207,7 @@
         <v>0</v>
       </c>
       <c r="N333" s="14" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="334" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12237,7 +12228,7 @@
         <v>139</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J334" s="31" t="s">
         <v>155</v>
@@ -12249,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="N334" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="335" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12270,7 +12261,7 @@
         <v>135</v>
       </c>
       <c r="I335" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J335" s="31" t="s">
         <v>155</v>
@@ -12280,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="N335" s="14" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="336" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12301,7 +12292,7 @@
         <v>136</v>
       </c>
       <c r="I336" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J336" s="31" t="s">
         <v>155</v>
@@ -12311,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="N336" s="14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="337" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12329,10 +12320,10 @@
         <v>0</v>
       </c>
       <c r="H337" s="26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I337" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J337" s="31" t="s">
         <v>155</v>
@@ -12344,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="N337" s="14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="338" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12394,7 +12385,7 @@
         <v>140</v>
       </c>
       <c r="I339" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J339" s="31" t="s">
         <v>155</v>
@@ -12427,7 +12418,7 @@
         <v>141</v>
       </c>
       <c r="I340" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J340" s="31" t="s">
         <v>155</v>
@@ -12460,7 +12451,7 @@
         <v>142</v>
       </c>
       <c r="I341" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J341" s="31" t="s">
         <v>155</v>
@@ -12490,7 +12481,7 @@
         <v>271</v>
       </c>
       <c r="H342" s="65" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I342" s="35"/>
       <c r="J342" s="62" t="s">
@@ -12499,7 +12490,7 @@
       <c r="K342" s="31"/>
       <c r="L342" s="50"/>
       <c r="N342" s="66" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="343" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -12511,7 +12502,7 @@
         <v>2</v>
       </c>
       <c r="F343" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G343" s="18" t="s">
         <v>0</v>
@@ -12542,7 +12533,7 @@
         <v>2</v>
       </c>
       <c r="F344" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G344" s="18" t="s">
         <v>0</v>
@@ -12571,7 +12562,7 @@
         <v>2</v>
       </c>
       <c r="F345" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G345" s="18" t="s">
         <v>0</v>
@@ -12602,7 +12593,7 @@
         <v>2</v>
       </c>
       <c r="F346" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G346" s="18" t="s">
         <v>0</v>
@@ -12633,7 +12624,7 @@
         <v>2</v>
       </c>
       <c r="F347" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G347" s="15" t="s">
         <v>0</v>
@@ -12652,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="N347" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="348" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12670,7 +12661,7 @@
         <v>271</v>
       </c>
       <c r="H348" s="65" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I348" s="35"/>
       <c r="J348" s="62" t="s">
@@ -12679,7 +12670,7 @@
       <c r="K348" s="31"/>
       <c r="L348" s="50"/>
       <c r="N348" s="66" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="349" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -12691,7 +12682,7 @@
         <v>2</v>
       </c>
       <c r="F349" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G349" s="18" t="s">
         <v>0</v>
@@ -12722,7 +12713,7 @@
         <v>2</v>
       </c>
       <c r="F350" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G350" s="18" t="s">
         <v>0</v>
@@ -12751,7 +12742,7 @@
         <v>2</v>
       </c>
       <c r="F351" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G351" s="18" t="s">
         <v>0</v>
@@ -12782,7 +12773,7 @@
         <v>2</v>
       </c>
       <c r="F352" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G352" s="18" t="s">
         <v>0</v>
@@ -12813,7 +12804,7 @@
         <v>2</v>
       </c>
       <c r="F353" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G353" s="15" t="s">
         <v>0</v>
@@ -12832,7 +12823,7 @@
         <v>0</v>
       </c>
       <c r="N353" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="354" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -12865,7 +12856,7 @@
         <v>0</v>
       </c>
       <c r="N354" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="355" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -12898,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="N355" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="356" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -12931,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="N356" s="17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="357" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12964,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="N357" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="358" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12997,7 +12988,7 @@
         <v>0</v>
       </c>
       <c r="N358" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="359" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13030,7 +13021,7 @@
         <v>0</v>
       </c>
       <c r="N359" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="360" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13063,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="N360" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="361" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13084,7 +13075,7 @@
         <v>74</v>
       </c>
       <c r="I361" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J361" s="31" t="s">
         <v>155</v>
@@ -13096,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="N361" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="362" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13114,10 +13105,10 @@
         <v>0</v>
       </c>
       <c r="H362" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I362" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J362" s="31" t="s">
         <v>155</v>
@@ -13129,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="N362" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="364" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13305,7 +13296,7 @@
         <v>0</v>
       </c>
       <c r="H369" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I369" s="18"/>
       <c r="J369" s="32" t="s">
@@ -13317,7 +13308,7 @@
       </c>
       <c r="M369" s="13"/>
       <c r="N369" s="17" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="370" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -13335,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="H370" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I370" s="18"/>
       <c r="J370" s="32" t="s">
@@ -13380,7 +13371,7 @@
       </c>
       <c r="M371" s="13"/>
       <c r="N371" s="17" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="372" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -13416,7 +13407,7 @@
       </c>
       <c r="M372" s="13"/>
       <c r="N372" s="17" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="373" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -13434,7 +13425,7 @@
         <v>0</v>
       </c>
       <c r="H373" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I373" s="18"/>
       <c r="J373" s="32" t="s">
@@ -13447,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="N373" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="374" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -13465,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="H374" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I374" s="18"/>
       <c r="J374" s="32" t="s">
@@ -13478,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="N374" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="375" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13528,7 +13519,7 @@
         <v>0</v>
       </c>
       <c r="H376" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I376" s="15" t="s">
         <v>433</v>
@@ -13543,7 +13534,7 @@
         <v>0</v>
       </c>
       <c r="N376" s="54" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="377" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13623,7 +13614,7 @@
         <v>270</v>
       </c>
       <c r="H379" s="65" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I379" s="35" t="s">
         <v>104</v>
@@ -13691,7 +13682,7 @@
       <c r="K381" s="31"/>
       <c r="L381" s="50"/>
       <c r="N381" s="66" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="382" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13742,20 +13733,18 @@
         <v>270</v>
       </c>
       <c r="H383" s="65" t="s">
-        <v>576</v>
+        <v>487</v>
       </c>
       <c r="I383" s="35" t="s">
-        <v>453</v>
+        <v>28</v>
       </c>
       <c r="J383" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="K383" s="31" t="s">
-        <v>3</v>
-      </c>
+      <c r="K383" s="31"/>
       <c r="L383" s="50"/>
       <c r="N383" s="66" t="s">
-        <v>563</v>
+        <v>204</v>
       </c>
     </row>
     <row r="384" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13773,10 +13762,10 @@
         <v>270</v>
       </c>
       <c r="H384" s="65" t="s">
-        <v>488</v>
+        <v>268</v>
       </c>
       <c r="I384" s="35" t="s">
-        <v>28</v>
+        <v>267</v>
       </c>
       <c r="J384" s="62" t="s">
         <v>155</v>
@@ -13784,7 +13773,7 @@
       <c r="K384" s="31"/>
       <c r="L384" s="50"/>
       <c r="N384" s="66" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="385" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13792,9 +13781,6 @@
       <c r="C385" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D385" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="E385" s="50">
         <v>1</v>
       </c>
@@ -13802,10 +13788,10 @@
         <v>270</v>
       </c>
       <c r="H385" s="65" t="s">
-        <v>268</v>
+        <v>489</v>
       </c>
       <c r="I385" s="35" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="J385" s="62" t="s">
         <v>155</v>
@@ -13813,7 +13799,7 @@
       <c r="K385" s="31"/>
       <c r="L385" s="50"/>
       <c r="N385" s="66" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
     </row>
     <row r="386" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13821,6 +13807,9 @@
       <c r="C386" s="12" t="s">
         <v>270</v>
       </c>
+      <c r="D386" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="E386" s="50">
         <v>1</v>
       </c>
@@ -13828,10 +13817,10 @@
         <v>270</v>
       </c>
       <c r="H386" s="65" t="s">
-        <v>490</v>
+        <v>16</v>
       </c>
       <c r="I386" s="35" t="s">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="J386" s="62" t="s">
         <v>155</v>
@@ -13839,7 +13828,7 @@
       <c r="K386" s="31"/>
       <c r="L386" s="50"/>
       <c r="N386" s="66" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
     </row>
     <row r="387" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13857,45 +13846,50 @@
         <v>270</v>
       </c>
       <c r="H387" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="I387" s="35" t="s">
-        <v>20</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="I387" s="35"/>
       <c r="J387" s="62" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="K387" s="31"/>
       <c r="L387" s="50"/>
       <c r="N387" s="66" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="388" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B388" s="31"/>
-      <c r="C388" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="13"/>
+      <c r="B388" s="32"/>
+      <c r="C388" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D388" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E388" s="50">
-        <v>1</v>
+      <c r="D388" s="13"/>
+      <c r="E388" s="51">
+        <v>2</v>
       </c>
       <c r="F388" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="H388" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="I388" s="35"/>
-      <c r="J388" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="K388" s="31"/>
-      <c r="L388" s="50"/>
-      <c r="N388" s="66" t="s">
-        <v>209</v>
+      <c r="G388" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H388" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="I388" s="18"/>
+      <c r="J388" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K388" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L388" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M388" s="13"/>
+      <c r="N388" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="389" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -13932,103 +13926,102 @@
         <v>533</v>
       </c>
     </row>
-    <row r="390" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="13"/>
-      <c r="B390" s="32"/>
-      <c r="C390" s="13" t="s">
+    <row r="390" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B390" s="31"/>
+      <c r="C390" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D390" s="13"/>
-      <c r="E390" s="51">
+      <c r="E390" s="50">
         <v>2</v>
       </c>
       <c r="F390" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="G390" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H390" s="22" t="s">
-        <v>532</v>
-      </c>
-      <c r="I390" s="18"/>
-      <c r="J390" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K390" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L390" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M390" s="13"/>
-      <c r="N390" s="17" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="391" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B391" s="31"/>
-      <c r="C391" s="12" t="s">
+      <c r="G390" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H390" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I390" s="15"/>
+      <c r="J390" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K390" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L390" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N390" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="13"/>
+      <c r="B391" s="32"/>
+      <c r="C391" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="E391" s="50">
-        <v>2</v>
-      </c>
-      <c r="F391" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="G391" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H391" s="24" t="s">
+      <c r="D391" s="13"/>
+      <c r="E391" s="51">
+        <v>3</v>
+      </c>
+      <c r="F391" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="I391" s="15"/>
-      <c r="J391" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K391" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L391" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N391" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="392" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="13"/>
-      <c r="B392" s="32"/>
-      <c r="C392" s="13" t="s">
+      <c r="G391" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H391" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I391" s="18"/>
+      <c r="J391" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K391" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L391" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M391" s="13"/>
+      <c r="N391" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B392" s="31"/>
+      <c r="C392" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D392" s="13"/>
-      <c r="E392" s="51">
+      <c r="E392" s="50">
         <v>3</v>
       </c>
-      <c r="F392" s="18" t="s">
+      <c r="F392" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="G392" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H392" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I392" s="18"/>
-      <c r="J392" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K392" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L392" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M392" s="13"/>
-      <c r="N392" s="17" t="s">
-        <v>214</v>
+      <c r="G392" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H392" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I392" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="J392" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K392" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L392" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N392" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="393" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14037,71 +14030,70 @@
         <v>270</v>
       </c>
       <c r="E393" s="50">
+        <v>2</v>
+      </c>
+      <c r="F393" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G393" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H393" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I393" s="15"/>
+      <c r="J393" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K393" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L393" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N393" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="13"/>
+      <c r="B394" s="32"/>
+      <c r="C394" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D394" s="13"/>
+      <c r="E394" s="51">
         <v>3</v>
       </c>
-      <c r="F393" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G393" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H393" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="I393" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="J393" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K393" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L393" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N393" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="394" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B394" s="31"/>
-      <c r="C394" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E394" s="50">
-        <v>2</v>
-      </c>
-      <c r="F394" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="G394" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H394" s="24" t="s">
+      <c r="F394" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="I394" s="15"/>
-      <c r="J394" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K394" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L394" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N394" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="395" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="13"/>
+      <c r="G394" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H394" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I394" s="18"/>
+      <c r="J394" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K394" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L394" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M394" s="13"/>
+      <c r="N394" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B395" s="32"/>
       <c r="C395" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D395" s="13"/>
       <c r="E395" s="51">
         <v>3</v>
       </c>
@@ -14112,11 +14104,13 @@
         <v>0</v>
       </c>
       <c r="H395" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I395" s="18"/>
-      <c r="J395" s="32" t="s">
-        <v>18</v>
+        <v>93</v>
+      </c>
+      <c r="I395" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="J395" s="31" t="s">
+        <v>155</v>
       </c>
       <c r="K395" s="32" t="s">
         <v>0</v>
@@ -14124,107 +14118,106 @@
       <c r="L395" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="M395" s="13"/>
       <c r="N395" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="396" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B396" s="32"/>
-      <c r="C396" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B396" s="31"/>
+      <c r="C396" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E396" s="51">
+      <c r="E396" s="50">
+        <v>2</v>
+      </c>
+      <c r="F396" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G396" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H396" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I396" s="15"/>
+      <c r="J396" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K396" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L396" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N396" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="13"/>
+      <c r="B397" s="32"/>
+      <c r="C397" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D397" s="13"/>
+      <c r="E397" s="51">
         <v>3</v>
       </c>
-      <c r="F396" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G396" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H396" s="25" t="s">
+      <c r="F397" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G397" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H397" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="I397" s="18"/>
+      <c r="J397" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K397" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L397" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M397" s="13"/>
+      <c r="N397" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B398" s="31"/>
+      <c r="C398" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E398" s="50">
+        <v>3</v>
+      </c>
+      <c r="F398" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G398" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H398" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="I396" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="J396" s="31" t="s">
+      <c r="I398" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="J398" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K396" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L396" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N396" s="17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="397" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B397" s="31"/>
-      <c r="C397" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E397" s="50">
-        <v>2</v>
-      </c>
-      <c r="F397" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="G397" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H397" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I397" s="15"/>
-      <c r="J397" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K397" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L397" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N397" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="398" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="13"/>
-      <c r="B398" s="32"/>
-      <c r="C398" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D398" s="13"/>
-      <c r="E398" s="51">
-        <v>3</v>
-      </c>
-      <c r="F398" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G398" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H398" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="I398" s="18"/>
-      <c r="J398" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K398" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L398" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M398" s="13"/>
-      <c r="N398" s="17" t="s">
-        <v>212</v>
+      <c r="K398" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L398" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N398" s="14" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="399" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14232,32 +14225,28 @@
       <c r="C399" s="12" t="s">
         <v>270</v>
       </c>
+      <c r="D399" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="E399" s="50">
-        <v>3</v>
-      </c>
-      <c r="F399" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G399" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H399" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="I399" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="J399" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K399" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L399" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N399" s="14" t="s">
-        <v>211</v>
+        <v>1</v>
+      </c>
+      <c r="F399" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="H399" s="65" t="s">
+        <v>490</v>
+      </c>
+      <c r="I399" s="35"/>
+      <c r="J399" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K399" s="31"/>
+      <c r="L399" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="N399" s="66" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="400" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14265,64 +14254,63 @@
       <c r="C400" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D400" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="E400" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F400" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="G400" s="15"/>
+      <c r="H400" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I400" s="15"/>
+      <c r="J400" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K400" s="31"/>
+      <c r="L400" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N400" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="13"/>
+      <c r="B401" s="32"/>
+      <c r="C401" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="H400" s="65" t="s">
-        <v>491</v>
-      </c>
-      <c r="I400" s="35"/>
-      <c r="J400" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="K400" s="31"/>
-      <c r="L400" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="N400" s="66" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="401" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B401" s="31"/>
-      <c r="C401" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E401" s="50">
-        <v>2</v>
-      </c>
-      <c r="F401" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="G401" s="15"/>
-      <c r="H401" s="24" t="s">
+      <c r="D401" s="13"/>
+      <c r="E401" s="51">
+        <v>3</v>
+      </c>
+      <c r="F401" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="I401" s="15"/>
-      <c r="J401" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K401" s="31"/>
-      <c r="L401" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N401" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="402" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="13"/>
+      <c r="G401" s="18"/>
+      <c r="H401" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I401" s="18"/>
+      <c r="J401" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K401" s="32"/>
+      <c r="L401" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M401" s="13"/>
+      <c r="N401" s="17" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B402" s="32"/>
       <c r="C402" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D402" s="13"/>
       <c r="E402" s="51">
         <v>3</v>
       </c>
@@ -14331,19 +14319,20 @@
       </c>
       <c r="G402" s="18"/>
       <c r="H402" s="25" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="I402" s="18"/>
       <c r="J402" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K402" s="32"/>
+      <c r="K402" s="32" t="s">
+        <v>0</v>
+      </c>
       <c r="L402" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="M402" s="13"/>
       <c r="N402" s="17" t="s">
-        <v>595</v>
+        <v>236</v>
       </c>
     </row>
     <row r="403" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -14359,7 +14348,7 @@
       </c>
       <c r="G403" s="18"/>
       <c r="H403" s="25" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="I403" s="18"/>
       <c r="J403" s="32" t="s">
@@ -14372,14 +14361,16 @@
         <v>0</v>
       </c>
       <c r="N403" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="404" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="13"/>
       <c r="B404" s="32"/>
       <c r="C404" s="13" t="s">
         <v>270</v>
       </c>
+      <c r="D404" s="13"/>
       <c r="E404" s="51">
         <v>3</v>
       </c>
@@ -14388,7 +14379,7 @@
       </c>
       <c r="G404" s="18"/>
       <c r="H404" s="25" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="I404" s="18"/>
       <c r="J404" s="32" t="s">
@@ -14400,65 +14391,63 @@
       <c r="L404" s="32" t="s">
         <v>0</v>
       </c>
+      <c r="M404" s="13"/>
       <c r="N404" s="17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="405" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="13"/>
-      <c r="B405" s="32"/>
-      <c r="C405" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B405" s="31"/>
+      <c r="C405" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D405" s="13"/>
-      <c r="E405" s="51">
+      <c r="E405" s="50">
+        <v>2</v>
+      </c>
+      <c r="F405" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="G405" s="15"/>
+      <c r="H405" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I405" s="15"/>
+      <c r="J405" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K405" s="31"/>
+      <c r="L405" s="31"/>
+      <c r="N405" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B406" s="32"/>
+      <c r="C406" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E406" s="51">
         <v>3</v>
       </c>
-      <c r="F405" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G405" s="18"/>
-      <c r="H405" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I405" s="18"/>
-      <c r="J405" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K405" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L405" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M405" s="13"/>
-      <c r="N405" s="17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="406" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B406" s="31"/>
-      <c r="C406" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E406" s="50">
-        <v>2</v>
-      </c>
-      <c r="F406" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="G406" s="15"/>
-      <c r="H406" s="24" t="s">
+      <c r="F406" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I406" s="15"/>
-      <c r="J406" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K406" s="31"/>
-      <c r="L406" s="31"/>
-      <c r="N406" s="14" t="s">
-        <v>234</v>
+      <c r="G406" s="18"/>
+      <c r="H406" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I406" s="18"/>
+      <c r="J406" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K406" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L406" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N406" s="17" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="407" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -14474,11 +14463,11 @@
       </c>
       <c r="G407" s="18"/>
       <c r="H407" s="25" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="I407" s="18"/>
       <c r="J407" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K407" s="32" t="s">
         <v>0</v>
@@ -14487,64 +14476,64 @@
         <v>0</v>
       </c>
       <c r="N407" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="408" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B408" s="32"/>
-      <c r="C408" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="12"/>
+      <c r="B408" s="31"/>
+      <c r="C408" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E408" s="51">
+      <c r="D408" s="12"/>
+      <c r="E408" s="50">
+        <v>2</v>
+      </c>
+      <c r="F408" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="G408" s="15"/>
+      <c r="H408" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I408" s="15"/>
+      <c r="J408" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K408" s="31"/>
+      <c r="L408" s="31"/>
+      <c r="M408" s="12"/>
+      <c r="N408" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B409" s="32"/>
+      <c r="C409" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E409" s="51">
         <v>3</v>
       </c>
-      <c r="F408" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G408" s="18"/>
-      <c r="H408" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I408" s="18"/>
-      <c r="J408" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K408" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L408" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N408" s="17" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="409" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A409" s="12"/>
-      <c r="B409" s="31"/>
-      <c r="C409" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D409" s="12"/>
-      <c r="E409" s="50">
-        <v>2</v>
-      </c>
-      <c r="F409" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="G409" s="15"/>
-      <c r="H409" s="24" t="s">
+      <c r="F409" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I409" s="15"/>
-      <c r="J409" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K409" s="31"/>
-      <c r="L409" s="31"/>
-      <c r="M409" s="12"/>
-      <c r="N409" s="14" t="s">
-        <v>235</v>
+      <c r="G409" s="18"/>
+      <c r="H409" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I409" s="18"/>
+      <c r="J409" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K409" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L409" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N409" s="17" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="410" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -14560,7 +14549,7 @@
       </c>
       <c r="G410" s="18"/>
       <c r="H410" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I410" s="18"/>
       <c r="J410" s="32" t="s">
@@ -14573,65 +14562,66 @@
         <v>0</v>
       </c>
       <c r="N410" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="411" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B411" s="32"/>
-      <c r="C411" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B411" s="31"/>
+      <c r="C411" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E411" s="51">
+      <c r="E411" s="50">
         <v>3</v>
       </c>
-      <c r="F411" s="13" t="s">
+      <c r="F411" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G411" s="18"/>
-      <c r="H411" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I411" s="18"/>
-      <c r="J411" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="K411" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L411" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N411" s="17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="412" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B412" s="31"/>
-      <c r="C412" s="12" t="s">
+      <c r="G411" s="15"/>
+      <c r="H411" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I411" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="J411" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K411" s="31"/>
+      <c r="L411" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N411" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="13"/>
+      <c r="B412" s="32"/>
+      <c r="C412" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="E412" s="50">
+      <c r="D412" s="13"/>
+      <c r="E412" s="51">
         <v>3</v>
       </c>
-      <c r="F412" s="12" t="s">
+      <c r="F412" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G412" s="15"/>
-      <c r="H412" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="I412" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="J412" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K412" s="31"/>
-      <c r="L412" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N412" s="14" t="s">
-        <v>244</v>
+      <c r="G412" s="18"/>
+      <c r="H412" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I412" s="18"/>
+      <c r="J412" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K412" s="32"/>
+      <c r="L412" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M412" s="13"/>
+      <c r="N412" s="17" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="413" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -14649,7 +14639,7 @@
       </c>
       <c r="G413" s="18"/>
       <c r="H413" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I413" s="18"/>
       <c r="J413" s="32" t="s">
@@ -14661,37 +14651,36 @@
       </c>
       <c r="M413" s="13"/>
       <c r="N413" s="17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="414" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="13"/>
-      <c r="B414" s="32"/>
-      <c r="C414" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B414" s="31"/>
+      <c r="C414" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D414" s="13"/>
-      <c r="E414" s="51">
+      <c r="D414" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E414" s="50">
+        <v>1</v>
+      </c>
+      <c r="F414" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="H414" s="65" t="s">
+        <v>492</v>
+      </c>
+      <c r="I414" s="35"/>
+      <c r="J414" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K414" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F414" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="G414" s="18"/>
-      <c r="H414" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I414" s="18"/>
-      <c r="J414" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K414" s="32"/>
-      <c r="L414" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M414" s="13"/>
-      <c r="N414" s="17" t="s">
-        <v>245</v>
+      <c r="L414" s="50"/>
+      <c r="N414" s="66" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="415" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14699,28 +14688,28 @@
       <c r="C415" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D415" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="E415" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F415" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="H415" s="65" t="s">
-        <v>493</v>
-      </c>
-      <c r="I415" s="35"/>
-      <c r="J415" s="62" t="s">
+        <v>492</v>
+      </c>
+      <c r="G415" s="15"/>
+      <c r="H415" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I415" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J415" s="31" t="s">
         <v>12</v>
       </c>
       <c r="K415" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L415" s="50"/>
-      <c r="N415" s="66" t="s">
-        <v>312</v>
+        <v>127</v>
+      </c>
+      <c r="L415" s="31"/>
+      <c r="N415" s="14" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="416" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14729,27 +14718,29 @@
         <v>270</v>
       </c>
       <c r="E416" s="50">
-        <v>2</v>
-      </c>
-      <c r="F416" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="G416" s="15"/>
-      <c r="H416" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F416" s="15" t="s">
         <v>133</v>
       </c>
+      <c r="G416" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H416" s="26" t="s">
+        <v>137</v>
+      </c>
       <c r="I416" s="15" t="s">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="J416" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K416" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L416" s="31"/>
+        <v>155</v>
+      </c>
+      <c r="K416" s="31"/>
+      <c r="L416" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="N416" s="14" t="s">
-        <v>313</v>
+        <v>562</v>
       </c>
     </row>
     <row r="417" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14767,10 +14758,10 @@
         <v>0</v>
       </c>
       <c r="H417" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I417" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J417" s="31" t="s">
         <v>155</v>
@@ -14780,7 +14771,7 @@
         <v>0</v>
       </c>
       <c r="N417" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="418" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14798,20 +14789,22 @@
         <v>0</v>
       </c>
       <c r="H418" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I418" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J418" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K418" s="31"/>
+      <c r="K418" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="L418" s="31" t="s">
         <v>0</v>
       </c>
       <c r="N418" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="419" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14829,22 +14822,20 @@
         <v>0</v>
       </c>
       <c r="H419" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I419" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J419" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K419" s="31" t="s">
-        <v>0</v>
-      </c>
+      <c r="K419" s="31"/>
       <c r="L419" s="31" t="s">
         <v>0</v>
       </c>
       <c r="N419" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="420" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14862,10 +14853,10 @@
         <v>0</v>
       </c>
       <c r="H420" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I420" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J420" s="31" t="s">
         <v>155</v>
@@ -14875,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="N420" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="421" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14893,20 +14884,22 @@
         <v>0</v>
       </c>
       <c r="H421" s="26" t="s">
-        <v>136</v>
+        <v>453</v>
       </c>
       <c r="I421" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J421" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K421" s="31"/>
+      <c r="K421" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="L421" s="31" t="s">
         <v>0</v>
       </c>
       <c r="N421" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="422" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14915,31 +14908,25 @@
         <v>270</v>
       </c>
       <c r="E422" s="50">
-        <v>3</v>
-      </c>
-      <c r="F422" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G422" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H422" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="I422" s="15" t="s">
-        <v>518</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F422" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="G422" s="15"/>
+      <c r="H422" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="I422" s="15"/>
       <c r="J422" s="31" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="K422" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L422" s="31" t="s">
-        <v>0</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="L422" s="31"/>
       <c r="N422" s="14" t="s">
-        <v>569</v>
+        <v>314</v>
       </c>
     </row>
     <row r="423" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14948,25 +14935,29 @@
         <v>270</v>
       </c>
       <c r="E423" s="50">
-        <v>2</v>
-      </c>
-      <c r="F423" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="G423" s="15"/>
-      <c r="H423" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F423" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="I423" s="15"/>
+      <c r="G423" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H423" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I423" s="15" t="s">
+        <v>517</v>
+      </c>
       <c r="J423" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K423" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L423" s="31"/>
+        <v>155</v>
+      </c>
+      <c r="K423" s="31"/>
+      <c r="L423" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="N423" s="14" t="s">
-        <v>314</v>
+        <v>568</v>
       </c>
     </row>
     <row r="424" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14984,10 +14975,10 @@
         <v>0</v>
       </c>
       <c r="H424" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I424" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J424" s="31" t="s">
         <v>155</v>
@@ -14997,7 +14988,7 @@
         <v>0</v>
       </c>
       <c r="N424" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="425" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15015,20 +15006,22 @@
         <v>0</v>
       </c>
       <c r="H425" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I425" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J425" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K425" s="31"/>
+      <c r="K425" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="L425" s="31" t="s">
         <v>0</v>
       </c>
       <c r="N425" s="14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="426" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15046,22 +15039,20 @@
         <v>0</v>
       </c>
       <c r="H426" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I426" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J426" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K426" s="31" t="s">
-        <v>0</v>
-      </c>
+      <c r="K426" s="31"/>
       <c r="L426" s="31" t="s">
         <v>0</v>
       </c>
       <c r="N426" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="427" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15079,10 +15070,10 @@
         <v>0</v>
       </c>
       <c r="H427" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I427" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J427" s="31" t="s">
         <v>155</v>
@@ -15092,7 +15083,7 @@
         <v>0</v>
       </c>
       <c r="N427" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="428" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15110,20 +15101,22 @@
         <v>0</v>
       </c>
       <c r="H428" s="26" t="s">
-        <v>136</v>
+        <v>454</v>
       </c>
       <c r="I428" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J428" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K428" s="31"/>
+      <c r="K428" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="L428" s="31" t="s">
         <v>0</v>
       </c>
       <c r="N428" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="429" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15141,22 +15134,18 @@
         <v>0</v>
       </c>
       <c r="H429" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="I429" s="15" t="s">
-        <v>518</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="I429" s="15"/>
       <c r="J429" s="31" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="K429" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L429" s="31" t="s">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L429" s="31"/>
       <c r="N429" s="14" t="s">
-        <v>575</v>
+        <v>315</v>
       </c>
     </row>
     <row r="430" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15165,27 +15154,31 @@
         <v>270</v>
       </c>
       <c r="E430" s="50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F430" s="15" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G430" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H430" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="I430" s="15"/>
+      <c r="H430" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="I430" s="15" t="s">
+        <v>517</v>
+      </c>
       <c r="J430" s="31" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="K430" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L430" s="31"/>
+      <c r="L430" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="N430" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="431" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15203,10 +15196,10 @@
         <v>0</v>
       </c>
       <c r="H431" s="67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I431" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J431" s="31" t="s">
         <v>155</v>
@@ -15218,7 +15211,7 @@
         <v>0</v>
       </c>
       <c r="N431" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="432" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15236,10 +15229,10 @@
         <v>0</v>
       </c>
       <c r="H432" s="67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I432" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J432" s="31" t="s">
         <v>155</v>
@@ -15251,7 +15244,7 @@
         <v>0</v>
       </c>
       <c r="N432" s="14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="433" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15259,59 +15252,57 @@
       <c r="C433" s="12" t="s">
         <v>270</v>
       </c>
+      <c r="D433" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="E433" s="50">
-        <v>4</v>
-      </c>
-      <c r="F433" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="G433" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H433" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="I433" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="J433" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K433" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L433" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N433" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="434" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B434" s="31"/>
-      <c r="C434" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F433" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="D434" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E434" s="50">
-        <v>1</v>
-      </c>
-      <c r="F434" s="35" t="s">
+      <c r="H433" s="65" t="s">
+        <v>491</v>
+      </c>
+      <c r="I433" s="35"/>
+      <c r="J433" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K433" s="31"/>
+      <c r="L433" s="50"/>
+      <c r="N433" s="66" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="434" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B434" s="32"/>
+      <c r="C434" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="H434" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="I434" s="35"/>
-      <c r="J434" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="K434" s="31"/>
-      <c r="L434" s="50"/>
-      <c r="N434" s="66" t="s">
-        <v>616</v>
+      <c r="E434" s="51">
+        <v>2</v>
+      </c>
+      <c r="F434" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="G434" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H434" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I434" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J434" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K434" s="32"/>
+      <c r="L434" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N434" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="435" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15323,17 +15314,15 @@
         <v>2</v>
       </c>
       <c r="F435" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G435" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H435" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="I435" s="18" t="s">
-        <v>0</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="I435" s="18"/>
       <c r="J435" s="32" t="s">
         <v>18</v>
       </c>
@@ -15342,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="N435" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="436" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15354,24 +15343,26 @@
         <v>2</v>
       </c>
       <c r="F436" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G436" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H436" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="I436" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="I436" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J436" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K436" s="32"/>
       <c r="L436" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N436" s="17" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
     </row>
     <row r="437" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15383,57 +15374,57 @@
         <v>2</v>
       </c>
       <c r="F437" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G437" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H437" s="22" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="I437" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J437" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K437" s="32"/>
       <c r="L437" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N437" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="438" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B438" s="32"/>
-      <c r="C438" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="438" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B438" s="31"/>
+      <c r="C438" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E438" s="51">
+      <c r="E438" s="50">
         <v>2</v>
       </c>
-      <c r="F438" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="G438" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H438" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="I438" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J438" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K438" s="32"/>
-      <c r="L438" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N438" s="17" t="s">
-        <v>216</v>
+      <c r="F438" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="G438" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H438" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I438" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J438" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K438" s="31"/>
+      <c r="L438" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N438" s="14" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="439" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15441,57 +15432,57 @@
       <c r="C439" s="12" t="s">
         <v>270</v>
       </c>
+      <c r="D439" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="E439" s="50">
+        <v>1</v>
+      </c>
+      <c r="F439" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="H439" s="65" t="s">
+        <v>497</v>
+      </c>
+      <c r="I439" s="35"/>
+      <c r="J439" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K439" s="31"/>
+      <c r="L439" s="50"/>
+      <c r="N439" s="66" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="440" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B440" s="32"/>
+      <c r="C440" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E440" s="51">
         <v>2</v>
       </c>
-      <c r="F439" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="G439" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H439" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="I439" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J439" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K439" s="31"/>
-      <c r="L439" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N439" s="14" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="440" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B440" s="31"/>
-      <c r="C440" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D440" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E440" s="50">
-        <v>1</v>
-      </c>
-      <c r="F440" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="H440" s="65" t="s">
-        <v>498</v>
-      </c>
-      <c r="I440" s="35"/>
-      <c r="J440" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="K440" s="31"/>
-      <c r="L440" s="50"/>
-      <c r="N440" s="66" t="s">
-        <v>633</v>
+      <c r="F440" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="G440" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H440" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I440" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J440" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K440" s="32"/>
+      <c r="L440" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N440" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="441" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15503,17 +15494,15 @@
         <v>2</v>
       </c>
       <c r="F441" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G441" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H441" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="I441" s="18" t="s">
-        <v>0</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="I441" s="18"/>
       <c r="J441" s="32" t="s">
         <v>18</v>
       </c>
@@ -15522,7 +15511,7 @@
         <v>0</v>
       </c>
       <c r="N441" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="442" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15534,24 +15523,26 @@
         <v>2</v>
       </c>
       <c r="F442" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G442" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H442" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="I442" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="I442" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J442" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K442" s="32"/>
       <c r="L442" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N442" s="17" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
     </row>
     <row r="443" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15563,88 +15554,90 @@
         <v>2</v>
       </c>
       <c r="F443" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G443" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H443" s="22" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="I443" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J443" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K443" s="32"/>
       <c r="L443" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N443" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="444" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B444" s="32"/>
-      <c r="C444" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="444" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B444" s="31"/>
+      <c r="C444" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E444" s="51">
+      <c r="E444" s="50">
         <v>2</v>
       </c>
-      <c r="F444" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="G444" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H444" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="I444" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J444" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K444" s="32"/>
-      <c r="L444" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N444" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="445" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B445" s="31"/>
-      <c r="C445" s="12" t="s">
+      <c r="F444" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="G444" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H444" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I444" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J444" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K444" s="31"/>
+      <c r="L444" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N444" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="445" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B445" s="32"/>
+      <c r="C445" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="E445" s="50">
-        <v>2</v>
-      </c>
-      <c r="F445" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="G445" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H445" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="I445" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J445" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K445" s="31"/>
-      <c r="L445" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N445" s="14" t="s">
-        <v>463</v>
+      <c r="E445" s="51">
+        <v>1</v>
+      </c>
+      <c r="F445" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G445" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H445" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I445" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J445" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K445" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L445" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N445" s="17" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="446" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15662,7 +15655,7 @@
         <v>0</v>
       </c>
       <c r="H446" s="16" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="I446" s="18" t="s">
         <v>0</v>
@@ -15695,7 +15688,7 @@
         <v>0</v>
       </c>
       <c r="H447" s="16" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I447" s="18" t="s">
         <v>0</v>
@@ -15713,36 +15706,36 @@
         <v>551</v>
       </c>
     </row>
-    <row r="448" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B448" s="32"/>
-      <c r="C448" s="13" t="s">
+    <row r="448" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B448" s="31"/>
+      <c r="C448" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E448" s="51">
-        <v>1</v>
-      </c>
-      <c r="F448" s="13" t="s">
+      <c r="E448" s="50">
+        <v>1</v>
+      </c>
+      <c r="F448" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="G448" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H448" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="I448" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J448" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="K448" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L448" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N448" s="17" t="s">
+      <c r="G448" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H448" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I448" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="J448" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K448" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L448" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N448" s="14" t="s">
         <v>552</v>
       </c>
     </row>
@@ -15761,7 +15754,7 @@
         <v>0</v>
       </c>
       <c r="H449" s="20" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="I449" s="15" t="s">
         <v>407</v>
@@ -15794,7 +15787,7 @@
         <v>0</v>
       </c>
       <c r="H450" s="20" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="I450" s="15" t="s">
         <v>407</v>
@@ -15827,7 +15820,7 @@
         <v>0</v>
       </c>
       <c r="H451" s="20" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="I451" s="15" t="s">
         <v>407</v>
@@ -15860,10 +15853,10 @@
         <v>0</v>
       </c>
       <c r="H452" s="20" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="I452" s="15" t="s">
-        <v>407</v>
+        <v>517</v>
       </c>
       <c r="J452" s="31" t="s">
         <v>155</v>
@@ -15893,10 +15886,10 @@
         <v>0</v>
       </c>
       <c r="H453" s="20" t="s">
-        <v>74</v>
+        <v>545</v>
       </c>
       <c r="I453" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J453" s="31" t="s">
         <v>155</v>
@@ -15911,66 +15904,64 @@
         <v>557</v>
       </c>
     </row>
-    <row r="454" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B454" s="31"/>
-      <c r="C454" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E454" s="50">
-        <v>1</v>
-      </c>
-      <c r="F454" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="G454" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H454" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="I454" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="J454" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K454" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L454" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N454" s="14" t="s">
-        <v>558</v>
+    <row r="455" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="12"/>
+      <c r="B455" s="31"/>
+      <c r="C455" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E455" s="50">
+        <v>0</v>
+      </c>
+      <c r="F455" s="12"/>
+      <c r="G455" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H455" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I455" s="15"/>
+      <c r="J455" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K455" s="31"/>
+      <c r="L455" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M455" s="12"/>
+      <c r="N455" s="14" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="456" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="12"/>
-      <c r="B456" s="31"/>
-      <c r="C456" s="12" t="s">
+      <c r="B456" s="32"/>
+      <c r="C456" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E456" s="50">
-        <v>0</v>
-      </c>
-      <c r="F456" s="12"/>
-      <c r="G456" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H456" s="12" t="s">
+      <c r="E456" s="51">
+        <v>1</v>
+      </c>
+      <c r="F456" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="I456" s="15"/>
-      <c r="J456" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K456" s="31"/>
-      <c r="L456" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M456" s="12"/>
-      <c r="N456" s="14" t="s">
-        <v>503</v>
+      <c r="G456" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H456" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I456" s="18"/>
+      <c r="J456" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K456" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L456" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N456" s="17" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="457" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15988,11 +15979,11 @@
         <v>0</v>
       </c>
       <c r="H457" s="16" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="I457" s="18"/>
       <c r="J457" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K457" s="32" t="s">
         <v>3</v>
@@ -16001,38 +15992,40 @@
         <v>0</v>
       </c>
       <c r="N457" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="458" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B458" s="32"/>
-      <c r="C458" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B458" s="31"/>
+      <c r="C458" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="E458" s="51">
-        <v>1</v>
-      </c>
-      <c r="F458" s="13" t="s">
+      <c r="E458" s="50">
+        <v>1</v>
+      </c>
+      <c r="F458" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="G458" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H458" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I458" s="18"/>
-      <c r="J458" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K458" s="32" t="s">
+      <c r="G458" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H458" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="I458" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="J458" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K458" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L458" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N458" s="17" t="s">
-        <v>251</v>
+      <c r="L458" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N458" s="14" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="459" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -16047,13 +16040,13 @@
         <v>272</v>
       </c>
       <c r="G459" s="15" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H459" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I459" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J459" s="31" t="s">
         <v>155</v>
@@ -16062,43 +16055,39 @@
         <v>3</v>
       </c>
       <c r="L459" s="31" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N459" s="14" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="460" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B460" s="31"/>
-      <c r="C460" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B460" s="32"/>
+      <c r="C460" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E460" s="50">
-        <v>1</v>
-      </c>
-      <c r="F460" s="12" t="s">
+      <c r="E460" s="51">
+        <v>1</v>
+      </c>
+      <c r="F460" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="G460" s="15" t="s">
+      <c r="G460" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H460" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="I460" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="J460" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K460" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L460" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="N460" s="14" t="s">
-        <v>502</v>
+      <c r="H460" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I460" s="18"/>
+      <c r="J460" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K460" s="32"/>
+      <c r="L460" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N460" s="17" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="461" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -16116,7 +16105,7 @@
         <v>5</v>
       </c>
       <c r="H461" s="16" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="I461" s="18"/>
       <c r="J461" s="32" t="s">
@@ -16130,97 +16119,99 @@
         <v>559</v>
       </c>
     </row>
-    <row r="462" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B462" s="32"/>
-      <c r="C462" s="13" t="s">
+    <row r="462" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B462" s="31"/>
+      <c r="C462" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="E462" s="51">
-        <v>1</v>
-      </c>
-      <c r="F462" s="13" t="s">
+      <c r="E462" s="50">
+        <v>1</v>
+      </c>
+      <c r="F462" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="G462" s="18" t="s">
+      <c r="G462" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H462" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I462" s="18"/>
-      <c r="J462" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="K462" s="32"/>
-      <c r="L462" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N462" s="17" t="s">
+      <c r="H462" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I462" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="J462" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K462" s="31"/>
+      <c r="L462" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N462" s="14" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="463" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B463" s="31"/>
-      <c r="C463" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E463" s="50">
-        <v>1</v>
-      </c>
-      <c r="F463" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="G463" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H463" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I463" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="J463" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K463" s="31"/>
-      <c r="L463" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N463" s="14" t="s">
-        <v>561</v>
+    <row r="464" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="12"/>
+      <c r="B464" s="31"/>
+      <c r="C464" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E464" s="50">
+        <v>0</v>
+      </c>
+      <c r="F464" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G464" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H464" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I464" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J464" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K464" s="31"/>
+      <c r="L464" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M464" s="12"/>
+      <c r="N464" s="14" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="465" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="12"/>
-      <c r="B465" s="31"/>
-      <c r="C465" s="12" t="s">
+      <c r="B465" s="32"/>
+      <c r="C465" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E465" s="50">
-        <v>0</v>
-      </c>
-      <c r="F465" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G465" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H465" s="12" t="s">
+      <c r="E465" s="51">
+        <v>1</v>
+      </c>
+      <c r="F465" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I465" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J465" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K465" s="31"/>
-      <c r="L465" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M465" s="12"/>
-      <c r="N465" s="14" t="s">
-        <v>337</v>
+      <c r="G465" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H465" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="I465" s="18"/>
+      <c r="J465" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K465" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L465" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N465" s="17" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="466" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -16238,11 +16229,13 @@
         <v>0</v>
       </c>
       <c r="H466" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="I466" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="I466" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J466" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K466" s="32" t="s">
         <v>3</v>
@@ -16251,14 +16244,16 @@
         <v>0</v>
       </c>
       <c r="N466" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="467" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="13"/>
       <c r="B467" s="32"/>
       <c r="C467" s="13" t="s">
         <v>30</v>
       </c>
+      <c r="D467" s="13"/>
       <c r="E467" s="51">
         <v>1</v>
       </c>
@@ -16269,22 +16264,21 @@
         <v>0</v>
       </c>
       <c r="H467" s="16" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="I467" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J467" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K467" s="32" t="s">
-        <v>3</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K467" s="32"/>
       <c r="L467" s="32" t="s">
         <v>0</v>
       </c>
+      <c r="M467" s="13"/>
       <c r="N467" s="17" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="468" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -16300,17 +16294,15 @@
       <c r="F468" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G468" s="18" t="s">
-        <v>0</v>
-      </c>
+      <c r="G468" s="18"/>
       <c r="H468" s="16" t="s">
-        <v>125</v>
+        <v>512</v>
       </c>
       <c r="I468" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J468" s="32" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="K468" s="32"/>
       <c r="L468" s="32" t="s">
@@ -16318,10 +16310,10 @@
       </c>
       <c r="M468" s="13"/>
       <c r="N468" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="469" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="13"/>
       <c r="B469" s="32"/>
       <c r="C469" s="13" t="s">
@@ -16334,15 +16326,17 @@
       <c r="F469" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G469" s="18"/>
+      <c r="G469" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="H469" s="16" t="s">
-        <v>513</v>
+        <v>344</v>
       </c>
       <c r="I469" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J469" s="32" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="K469" s="32"/>
       <c r="L469" s="32" t="s">
@@ -16350,12 +16344,11 @@
       </c>
       <c r="M469" s="13"/>
       <c r="N469" s="17" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="470" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="13"/>
-      <c r="B470" s="32"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B470" s="31"/>
       <c r="C470" s="13" t="s">
         <v>30</v>
       </c>
@@ -16366,167 +16359,134 @@
       <c r="F470" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G470" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H470" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="I470" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J470" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K470" s="32"/>
-      <c r="L470" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M470" s="13"/>
-      <c r="N470" s="17" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="471" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B471" s="31"/>
-      <c r="C471" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D471" s="13"/>
-      <c r="E471" s="51">
-        <v>1</v>
-      </c>
-      <c r="F471" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G471" s="15"/>
-      <c r="H471" s="20" t="s">
+      <c r="G470" s="15"/>
+      <c r="H470" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="I471" s="15" t="s">
+      <c r="I470" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="J471" s="31" t="s">
+      <c r="J470" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K471" s="31"/>
-      <c r="L471" s="31" t="s">
+      <c r="K470" s="31"/>
+      <c r="L470" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="N471" s="14" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="473" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B473" s="31"/>
-      <c r="C473" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="D473" s="13"/>
-      <c r="E473" s="50">
-        <v>0</v>
-      </c>
-      <c r="F473" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G473" s="15"/>
-      <c r="H473" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="I473" s="15"/>
-      <c r="J473" s="31" t="s">
+      <c r="N470" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B472" s="31"/>
+      <c r="C472" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="D472" s="13"/>
+      <c r="E472" s="50">
+        <v>0</v>
+      </c>
+      <c r="F472" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G472" s="15"/>
+      <c r="H472" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="I472" s="15"/>
+      <c r="J472" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K473" s="31"/>
-      <c r="L473" s="31"/>
-      <c r="N473" s="14"/>
+      <c r="K472" s="31"/>
+      <c r="L472" s="31"/>
+      <c r="N472" s="14"/>
+    </row>
+    <row r="473" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B473" s="32"/>
+      <c r="C473" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="E473" s="51">
+        <v>1</v>
+      </c>
+      <c r="F473" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="G473" s="18"/>
+      <c r="H473" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I473" s="18"/>
+      <c r="J473" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K473" s="32"/>
+      <c r="L473" s="32"/>
+      <c r="N473" s="17" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="474" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B474" s="32"/>
       <c r="C474" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E474" s="51">
         <v>1</v>
       </c>
       <c r="F474" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G474" s="18"/>
       <c r="H474" s="16" t="s">
-        <v>125</v>
+        <v>512</v>
       </c>
       <c r="I474" s="18"/>
       <c r="J474" s="32" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="K474" s="32"/>
       <c r="L474" s="32"/>
       <c r="N474" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="475" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B475" s="32"/>
-      <c r="C475" s="13" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B475" s="31"/>
+      <c r="C475" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="E475" s="50">
+        <v>1</v>
+      </c>
+      <c r="F475" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="G475" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H475" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="E475" s="51">
-        <v>1</v>
-      </c>
-      <c r="F475" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="G475" s="18"/>
-      <c r="H475" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="I475" s="18"/>
-      <c r="J475" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="K475" s="32"/>
-      <c r="L475" s="32"/>
-      <c r="N475" s="17" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="476" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B476" s="31"/>
-      <c r="C476" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="E476" s="50">
-        <v>1</v>
-      </c>
-      <c r="F476" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="G476" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H476" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="I476" s="15" t="s">
+      <c r="I475" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="J476" s="31" t="s">
+      <c r="J475" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K476" s="31"/>
-      <c r="L476" s="31" t="s">
+      <c r="K475" s="31"/>
+      <c r="L475" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="N476" s="14" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N477" s="44"/>
+      <c r="N475" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N476" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N477" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:N476" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/working_draft/data-model/ONE Record data model v12.9.xlsx
+++ b/working_draft/data-model/ONE Record data model v12.9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrab\Documents\Github\ONE-Record\working_draft\data-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaja\Documents\Github\ONE-Record\working_draft\data-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA7F46F-04C3-41E9-B419-E0665A8330F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DECA11-F257-4B5A-88D2-9038EB0BD12A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SchemaSpecifications" sheetId="31" r:id="rId1"/>
@@ -20,14 +20,14 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Constantin Syridis - Personal View" guid="{4858CC2B-A96C-4668-8DB3-ED537C11C704}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1026" windowHeight="500" tabRatio="802" activeSheetId="1"/>
     <customWorkbookView name="Patrick Murray - Personal View" guid="{E422D10D-9C2B-454B-AFCD-871CD9035CE7}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="597" tabRatio="802" activeSheetId="3"/>
-    <customWorkbookView name="Constantin Syridis - Personal View" guid="{4858CC2B-A96C-4668-8DB3-ED537C11C704}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1026" windowHeight="500" tabRatio="802" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="630">
   <si>
     <t/>
   </si>
@@ -1159,9 +1159,6 @@
   </si>
   <si>
     <t>Other contact options e.g. Skype, Whatsapp, Viber, Fax etc</t>
-  </si>
-  <si>
-    <t>ContactDetails</t>
   </si>
   <si>
     <t>Detail</t>
@@ -2615,33 +2612,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A383" sqref="A383:XFD383"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="49" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="41" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="23.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.26953125" style="3" customWidth="1"/>
     <col min="10" max="10" width="8" style="33" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="33" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="70.42578125" style="45" customWidth="1"/>
-    <col min="15" max="15" width="2.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="6.54296875" style="33" customWidth="1"/>
+    <col min="12" max="12" width="4.54296875" style="33" customWidth="1"/>
+    <col min="13" max="13" width="2.1796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="70.453125" style="45" customWidth="1"/>
+    <col min="15" max="15" width="2.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="63" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1" s="30"/>
       <c r="D1" s="5"/>
@@ -2653,7 +2650,7 @@
       <c r="L1" s="30"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="30"/>
       <c r="D2" s="5"/>
       <c r="E2" s="47"/>
@@ -2664,7 +2661,7 @@
       <c r="L2" s="30"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="42"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
@@ -2679,7 +2676,7 @@
       <c r="M3" s="7"/>
       <c r="N3" s="52"/>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="11" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="37"/>
       <c r="C4" s="9" t="s">
         <v>23</v>
@@ -2689,10 +2686,10 @@
         <v>29</v>
       </c>
       <c r="F4" s="58" t="s">
+        <v>626</v>
+      </c>
+      <c r="G4" s="58" t="s">
         <v>627</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>628</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>25</v>
@@ -2701,7 +2698,7 @@
         <v>128</v>
       </c>
       <c r="J4" s="59" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K4" s="59" t="s">
         <v>26</v>
@@ -2714,10 +2711,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="31"/>
       <c r="C5" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E5" s="31">
         <v>0</v>
@@ -2726,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>0</v>
@@ -2742,21 +2739,21 @@
         <v>0</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="32"/>
       <c r="C6" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="51">
         <v>1</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>0</v>
@@ -2777,18 +2774,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="32"/>
       <c r="C7" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="51">
         <v>1</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>0</v>
@@ -2806,17 +2803,17 @@
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="17" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E8" s="29"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="31"/>
       <c r="C9" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E9" s="50">
         <v>0</v>
@@ -2824,7 +2821,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="31" t="s">
@@ -2837,26 +2834,26 @@
         <v>0</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="31"/>
       <c r="C10" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E10" s="50">
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="20" t="s">
         <v>58</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>155</v>
@@ -2866,26 +2863,26 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="31"/>
       <c r="C11" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E11" s="50">
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="20" t="s">
         <v>69</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>155</v>
@@ -2895,26 +2892,26 @@
         <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="31"/>
       <c r="C12" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E12" s="50">
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="20" t="s">
         <v>59</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>155</v>
@@ -2924,17 +2921,17 @@
         <v>0</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" s="29"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="32"/>
       <c r="C14" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E14" s="50">
         <v>0</v>
@@ -2944,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="31" t="s">
@@ -2955,28 +2952,28 @@
         <v>0</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="31"/>
       <c r="C15" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="E15" s="50">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="E15" s="50">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>409</v>
-      </c>
       <c r="I15" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>155</v>
@@ -2989,16 +2986,16 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="31"/>
       <c r="C16" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E16" s="50">
         <v>1</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>0</v>
@@ -3007,7 +3004,7 @@
         <v>99</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>155</v>
@@ -3017,24 +3014,24 @@
         <v>0</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E17" s="29"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="31"/>
       <c r="C18" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E18" s="50">
         <v>0</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="31" t="s">
@@ -3047,26 +3044,26 @@
         <v>0</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="31"/>
       <c r="C19" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E19" s="50">
         <v>1</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="20" t="s">
         <v>60</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>155</v>
@@ -3079,23 +3076,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="31"/>
       <c r="C20" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E20" s="50">
         <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="20" t="s">
         <v>61</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>155</v>
@@ -3108,23 +3105,23 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="31"/>
       <c r="C21" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E21" s="50">
         <v>1</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="20" t="s">
         <v>62</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>155</v>
@@ -3137,23 +3134,23 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="31"/>
       <c r="C22" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E22" s="50">
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J22" s="31" t="s">
         <v>155</v>
@@ -3166,7 +3163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E23" s="29"/>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -3187,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="31"/>
       <c r="C24" s="12" t="s">
         <v>102</v>
@@ -3216,7 +3213,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="31"/>
       <c r="C25" s="12" t="s">
         <v>102</v>
@@ -3234,7 +3231,7 @@
         <v>358</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>155</v>
@@ -3245,10 +3242,10 @@
         <v>0</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="31"/>
       <c r="C26" s="12" t="s">
         <v>102</v>
@@ -3266,7 +3263,7 @@
         <v>359</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J26" s="31" t="s">
         <v>155</v>
@@ -3277,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="31"/>
       <c r="C27" s="12" t="s">
         <v>102</v>
@@ -3298,7 +3295,7 @@
         <v>360</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>155</v>
@@ -3312,7 +3309,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E28" s="29"/>
       <c r="F28" s="1" t="s">
         <v>0</v>
@@ -3333,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="31"/>
       <c r="C29" s="12" t="s">
@@ -3367,7 +3364,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="32"/>
       <c r="C30" s="13" t="s">
         <v>100</v>
@@ -3401,7 +3398,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="32"/>
       <c r="C31" s="13" t="s">
         <v>100</v>
@@ -3416,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>0</v>
@@ -3433,7 +3430,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="32"/>
       <c r="C32" s="13" t="s">
@@ -3467,7 +3464,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="32"/>
       <c r="C33" s="13" t="s">
@@ -3501,7 +3498,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="32"/>
       <c r="C34" s="13" t="s">
         <v>100</v>
@@ -3533,7 +3530,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="32"/>
       <c r="C35" s="13" t="s">
@@ -3564,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="32"/>
       <c r="C36" s="13" t="s">
         <v>100</v>
@@ -3596,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="32"/>
       <c r="C37" s="13" t="s">
@@ -3630,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="32"/>
       <c r="C38" s="13" t="s">
         <v>100</v>
@@ -3665,7 +3662,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="32"/>
       <c r="C39" s="13" t="s">
@@ -3682,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>0</v>
@@ -3699,7 +3696,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="32"/>
       <c r="C40" s="13" t="s">
@@ -3735,7 +3732,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
       <c r="E41" s="29"/>
       <c r="F41" s="1" t="s">
@@ -3757,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="31"/>
       <c r="C42" s="12" t="s">
         <v>27</v>
@@ -3781,7 +3778,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="32"/>
       <c r="C43" s="13" t="s">
@@ -3808,10 +3805,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="17" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="32"/>
       <c r="C44" s="13" t="s">
@@ -3841,7 +3838,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="32"/>
       <c r="C45" s="13" t="s">
@@ -3872,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="31"/>
       <c r="C46" s="13" t="s">
         <v>27</v>
@@ -3908,7 +3905,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="31"/>
       <c r="C47" s="12" t="s">
         <v>27</v>
@@ -3939,7 +3936,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
       <c r="E48" s="29"/>
       <c r="F48" s="1" t="s">
@@ -3961,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="31"/>
       <c r="C49" s="12" t="s">
         <v>103</v>
@@ -3993,7 +3990,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="32"/>
       <c r="C50" s="13" t="s">
         <v>103</v>
@@ -4025,7 +4022,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="32"/>
       <c r="C51" s="13" t="s">
         <v>103</v>
@@ -4057,7 +4054,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="32"/>
       <c r="C52" s="13" t="s">
         <v>103</v>
@@ -4089,7 +4086,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="32"/>
       <c r="C53" s="13" t="s">
         <v>103</v>
@@ -4121,7 +4118,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="32"/>
       <c r="C54" s="13" t="s">
         <v>103</v>
@@ -4153,7 +4150,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="32"/>
       <c r="C55" s="13" t="s">
         <v>103</v>
@@ -4185,7 +4182,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="32"/>
       <c r="C56" s="13" t="s">
         <v>103</v>
@@ -4217,7 +4214,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="32"/>
       <c r="C57" s="13" t="s">
         <v>103</v>
@@ -4232,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I57" s="18" t="s">
         <v>0</v>
@@ -4246,10 +4243,10 @@
         <v>0</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="31"/>
       <c r="C58" s="12" t="s">
         <v>103</v>
@@ -4264,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>377</v>
+        <v>51</v>
       </c>
       <c r="I58" s="15" t="s">
         <v>0</v>
@@ -4283,7 +4280,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="32"/>
       <c r="C59" s="13" t="s">
         <v>103</v>
@@ -4315,7 +4312,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="32"/>
       <c r="C60" s="13" t="s">
         <v>103</v>
@@ -4347,7 +4344,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="31"/>
       <c r="C61" s="12" t="s">
         <v>103</v>
@@ -4379,7 +4376,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
       <c r="B62" s="32"/>
       <c r="C62" s="13" t="s">
@@ -4410,10 +4407,10 @@
         <v>0</v>
       </c>
       <c r="N62" s="17" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="32"/>
       <c r="C63" s="13" t="s">
         <v>103</v>
@@ -4428,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I63" s="18" t="s">
         <v>0</v>
@@ -4442,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="N63" s="17" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E64" s="29"/>
       <c r="F64" s="1" t="s">
         <v>0</v>
@@ -4466,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="31"/>
       <c r="C65" s="12" t="s">
         <v>104</v>
@@ -4500,7 +4497,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="32"/>
       <c r="C66" s="13" t="s">
         <v>104</v>
@@ -4532,7 +4529,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="32"/>
       <c r="C67" s="13" t="s">
         <v>104</v>
@@ -4547,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I67" s="18"/>
       <c r="J67" s="32" t="s">
@@ -4559,10 +4556,10 @@
         <v>0</v>
       </c>
       <c r="N67" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="31"/>
       <c r="C68" s="12" t="s">
         <v>104</v>
@@ -4591,10 +4588,10 @@
         <v>0</v>
       </c>
       <c r="N68" s="14" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="32"/>
       <c r="C69" s="13" t="s">
         <v>104</v>
@@ -4609,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I69" s="18"/>
       <c r="J69" s="32" t="s">
@@ -4621,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="N69" s="17" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="32"/>
       <c r="C70" s="13" t="s">
         <v>104</v>
@@ -4639,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I70" s="18"/>
       <c r="J70" s="32" t="s">
@@ -4651,10 +4648,10 @@
         <v>0</v>
       </c>
       <c r="N70" s="17" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="31"/>
       <c r="C71" s="12" t="s">
         <v>104</v>
@@ -4669,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I71" s="15" t="s">
         <v>0</v>
@@ -4688,7 +4685,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
       <c r="B72" s="32"/>
       <c r="C72" s="13" t="s">
@@ -4699,13 +4696,13 @@
         <v>3</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>0</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I72" s="18" t="s">
         <v>0</v>
@@ -4719,10 +4716,10 @@
         <v>0</v>
       </c>
       <c r="N72" s="17" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
       <c r="B73" s="32"/>
       <c r="C73" s="13" t="s">
@@ -4733,13 +4730,13 @@
         <v>3</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>0</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I73" s="18" t="s">
         <v>0</v>
@@ -4756,7 +4753,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12"/>
       <c r="B74" s="31"/>
       <c r="C74" s="12" t="s">
@@ -4787,10 +4784,10 @@
         <v>0</v>
       </c>
       <c r="N74" s="14" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="31"/>
       <c r="C75" s="12" t="s">
         <v>104</v>
@@ -4805,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I75" s="15" t="s">
         <v>103</v>
@@ -4821,10 +4818,10 @@
         <v>0</v>
       </c>
       <c r="N75" s="14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
       <c r="B76" s="32"/>
       <c r="C76" s="13" t="s">
@@ -4858,7 +4855,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
       <c r="B77" s="32"/>
       <c r="C77" s="13" t="s">
@@ -4875,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I77" s="18" t="s">
         <v>0</v>
@@ -4889,10 +4886,10 @@
         <v>0</v>
       </c>
       <c r="N77" s="17" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="31"/>
       <c r="C79" s="12" t="s">
         <v>31</v>
@@ -4926,7 +4923,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="32"/>
       <c r="C80" s="18" t="s">
         <v>31</v>
@@ -4952,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="N80" s="17" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="31"/>
       <c r="C81" s="15" t="s">
         <v>31</v>
@@ -4968,7 +4965,7 @@
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I81" s="15" t="s">
         <v>104</v>
@@ -4982,10 +4979,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N82" s="44"/>
     </row>
-    <row r="83" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="31"/>
       <c r="C83" s="12" t="s">
         <v>20</v>
@@ -5017,7 +5014,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="31"/>
       <c r="C84" s="12" t="s">
         <v>20</v>
@@ -5032,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I84" s="15" t="s">
         <v>104</v>
@@ -5045,10 +5042,10 @@
         <v>0</v>
       </c>
       <c r="N84" s="14" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="31"/>
       <c r="C85" s="12" t="s">
         <v>20</v>
@@ -5063,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J85" s="31" t="s">
         <v>155</v>
@@ -5079,10 +5076,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="31"/>
       <c r="C87" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="50">
@@ -5095,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I87" s="15"/>
       <c r="J87" s="31" t="s">
@@ -5111,18 +5108,18 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13"/>
       <c r="B88" s="32"/>
       <c r="C88" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="51">
         <v>1</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G88" s="18" t="s">
         <v>5</v>
@@ -5142,19 +5139,19 @@
       </c>
       <c r="M88" s="13"/>
       <c r="N88" s="17" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="32"/>
       <c r="C89" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E89" s="51">
         <v>1</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G89" s="18" t="s">
         <v>5</v>
@@ -5176,16 +5173,16 @@
         <v>301</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="31"/>
       <c r="C90" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E90" s="50">
         <v>1</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G90" s="15" t="s">
         <v>0</v>
@@ -5207,16 +5204,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="32"/>
       <c r="C91" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E91" s="51">
         <v>1</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G91" s="18" t="s">
         <v>5</v>
@@ -5236,16 +5233,16 @@
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="32"/>
       <c r="C92" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E92" s="51">
         <v>1</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G92" s="18" t="s">
         <v>5</v>
@@ -5267,22 +5264,22 @@
         <v>297</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="32"/>
       <c r="C93" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E93" s="51">
         <v>1</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G93" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I93" s="18"/>
       <c r="J93" s="32" t="s">
@@ -5295,14 +5292,14 @@
         <v>0</v>
       </c>
       <c r="N93" s="17" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E94" s="29"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="31"/>
       <c r="C95" s="12" t="s">
         <v>22</v>
@@ -5337,7 +5334,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="31"/>
       <c r="C96" s="12" t="s">
         <v>22</v>
@@ -5369,7 +5366,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="32"/>
       <c r="C97" s="13" t="s">
         <v>22</v>
@@ -5401,7 +5398,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="32"/>
       <c r="C98" s="13" t="s">
         <v>22</v>
@@ -5416,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I98" s="18" t="s">
         <v>0</v>
@@ -5433,7 +5430,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="12"/>
       <c r="B99" s="31"/>
       <c r="C99" s="12" t="s">
@@ -5450,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I99" s="15" t="s">
         <v>0</v>
@@ -5469,7 +5466,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="32"/>
       <c r="C100" s="13" t="s">
         <v>22</v>
@@ -5478,7 +5475,7 @@
         <v>2</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G100" s="13" t="s">
         <v>0</v>
@@ -5496,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="N100" s="17" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="32"/>
       <c r="C101" s="13" t="s">
         <v>22</v>
@@ -5508,7 +5505,7 @@
         <v>2</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G101" s="13" t="s">
         <v>0</v>
@@ -5531,7 +5528,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="32"/>
       <c r="C102" s="13" t="s">
@@ -5548,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I102" s="18" t="s">
         <v>0</v>
@@ -5562,10 +5559,10 @@
         <v>0</v>
       </c>
       <c r="N102" s="17" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B103" s="31"/>
       <c r="C103" s="12" t="s">
         <v>22</v>
@@ -5580,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I103" s="15" t="s">
         <v>0</v>
@@ -5596,10 +5593,10 @@
         <v>0</v>
       </c>
       <c r="N103" s="14" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B104" s="32"/>
       <c r="C104" s="13" t="s">
         <v>22</v>
@@ -5608,7 +5605,7 @@
         <v>2</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G104" s="13" t="s">
         <v>0</v>
@@ -5631,7 +5628,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="32"/>
       <c r="C105" s="13" t="s">
@@ -5642,7 +5639,7 @@
         <v>2</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G105" s="13" t="s">
         <v>0</v>
@@ -5662,10 +5659,10 @@
         <v>0</v>
       </c>
       <c r="N105" s="17" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B106" s="32"/>
       <c r="C106" s="13" t="s">
         <v>22</v>
@@ -5674,7 +5671,7 @@
         <v>2</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G106" s="13" t="s">
         <v>0</v>
@@ -5697,7 +5694,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B107" s="31"/>
       <c r="C107" s="12" t="s">
         <v>22</v>
@@ -5731,7 +5728,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B108" s="32"/>
       <c r="C108" s="13" t="s">
         <v>22</v>
@@ -5760,10 +5757,10 @@
         <v>0</v>
       </c>
       <c r="N108" s="17" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B109" s="32"/>
       <c r="C109" s="13" t="s">
         <v>22</v>
@@ -5795,7 +5792,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="110" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="31"/>
       <c r="C110" s="12" t="s">
         <v>22</v>
@@ -5813,7 +5810,7 @@
         <v>9</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J110" s="31" t="s">
         <v>155</v>
@@ -5827,7 +5824,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B111" s="31"/>
       <c r="C111" s="12" t="s">
         <v>22</v>
@@ -5845,7 +5842,7 @@
         <v>14</v>
       </c>
       <c r="I111" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J111" s="31" t="s">
         <v>155</v>
@@ -5859,7 +5856,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B112" s="31"/>
       <c r="C112" s="12" t="s">
         <v>22</v>
@@ -5883,7 +5880,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B113" s="31"/>
       <c r="C113" s="12" t="s">
         <v>22</v>
@@ -5901,7 +5898,7 @@
         <v>63</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J113" s="31" t="s">
         <v>155</v>
@@ -5915,7 +5912,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="32"/>
       <c r="C114" s="13" t="s">
         <v>22</v>
@@ -5947,7 +5944,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B115" s="32"/>
       <c r="C115" s="13" t="s">
         <v>22</v>
@@ -5977,7 +5974,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B116" s="34"/>
       <c r="E116" s="34"/>
       <c r="F116" s="27" t="s">
@@ -6002,7 +5999,7 @@
       </c>
       <c r="N116" s="53"/>
     </row>
-    <row r="117" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B117" s="31"/>
       <c r="C117" s="12" t="s">
         <v>123</v>
@@ -6026,7 +6023,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B118" s="32"/>
       <c r="C118" s="13" t="s">
         <v>123</v>
@@ -6039,7 +6036,7 @@
       </c>
       <c r="G118" s="18"/>
       <c r="H118" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I118" s="18"/>
       <c r="J118" s="32" t="s">
@@ -6052,10 +6049,10 @@
         <v>0</v>
       </c>
       <c r="N118" s="17" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B119" s="31"/>
       <c r="C119" s="12" t="s">
         <v>123</v>
@@ -6068,7 +6065,7 @@
       </c>
       <c r="G119" s="15"/>
       <c r="H119" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I119" s="15"/>
       <c r="J119" s="31" t="s">
@@ -6084,7 +6081,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B120" s="32"/>
       <c r="C120" s="13" t="s">
         <v>123</v>
@@ -6093,7 +6090,7 @@
         <v>2</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G120" s="18"/>
       <c r="H120" s="25" t="s">
@@ -6110,10 +6107,10 @@
         <v>0</v>
       </c>
       <c r="N120" s="17" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B121" s="32"/>
       <c r="C121" s="13" t="s">
         <v>123</v>
@@ -6122,7 +6119,7 @@
         <v>2</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G121" s="18"/>
       <c r="H121" s="25" t="s">
@@ -6139,10 +6136,10 @@
         <v>0</v>
       </c>
       <c r="N121" s="17" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="31"/>
       <c r="C122" s="12" t="s">
         <v>123</v>
@@ -6171,7 +6168,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="123" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B123" s="32"/>
       <c r="C123" s="13" t="s">
         <v>123</v>
@@ -6200,7 +6197,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B124" s="32"/>
       <c r="C124" s="13" t="s">
         <v>123</v>
@@ -6229,7 +6226,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="125" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B125" s="32"/>
       <c r="C125" s="13" t="s">
         <v>123</v>
@@ -6258,7 +6255,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B126" s="32"/>
       <c r="C126" s="13" t="s">
         <v>123</v>
@@ -6287,7 +6284,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="127" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B127" s="31"/>
       <c r="C127" s="12" t="s">
         <v>123</v>
@@ -6299,7 +6296,7 @@
         <v>123</v>
       </c>
       <c r="H127" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I127" s="15"/>
       <c r="J127" s="31" t="s">
@@ -6308,10 +6305,10 @@
       <c r="K127" s="31"/>
       <c r="L127" s="31"/>
       <c r="N127" s="35" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="13"/>
       <c r="B128" s="32"/>
       <c r="C128" s="13" t="s">
@@ -6322,7 +6319,7 @@
         <v>2</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G128" s="13" t="s">
         <v>0</v>
@@ -6342,10 +6339,10 @@
         <v>0</v>
       </c>
       <c r="N128" s="17" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B129" s="32"/>
       <c r="C129" s="13" t="s">
         <v>123</v>
@@ -6354,7 +6351,7 @@
         <v>2</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G129" s="13" t="s">
         <v>0</v>
@@ -6374,10 +6371,10 @@
         <v>0</v>
       </c>
       <c r="N129" s="17" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B130" s="31"/>
       <c r="C130" s="12" t="s">
         <v>123</v>
@@ -6390,7 +6387,7 @@
       </c>
       <c r="G130" s="15"/>
       <c r="H130" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I130" s="15"/>
       <c r="J130" s="31" t="s">
@@ -6399,10 +6396,10 @@
       <c r="K130" s="31"/>
       <c r="L130" s="31"/>
       <c r="N130" s="14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="32"/>
       <c r="C131" s="13" t="s">
@@ -6413,7 +6410,7 @@
         <v>2</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G131" s="18"/>
       <c r="H131" s="25" t="s">
@@ -6429,10 +6426,10 @@
       </c>
       <c r="M131" s="13"/>
       <c r="N131" s="17" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B132" s="32"/>
       <c r="C132" s="13" t="s">
         <v>123</v>
@@ -6441,7 +6438,7 @@
         <v>2</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G132" s="18"/>
       <c r="H132" s="25" t="s">
@@ -6456,10 +6453,10 @@
         <v>0</v>
       </c>
       <c r="N132" s="17" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B133" s="31"/>
       <c r="C133" s="12" t="s">
         <v>123</v>
@@ -6488,10 +6485,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="135" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B135" s="31"/>
       <c r="C135" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D135" s="13"/>
       <c r="E135" s="50">
@@ -6502,7 +6499,7 @@
       </c>
       <c r="G135" s="15"/>
       <c r="H135" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="31" t="s">
@@ -6513,19 +6510,19 @@
         <v>17</v>
       </c>
       <c r="N135" s="14" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B136" s="32"/>
       <c r="C136" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E136" s="51">
         <v>1</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G136" s="18"/>
       <c r="H136" s="16" t="s">
@@ -6540,21 +6537,21 @@
         <v>0</v>
       </c>
       <c r="N136" s="17" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="13"/>
       <c r="B137" s="32"/>
       <c r="C137" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D137" s="18"/>
       <c r="E137" s="51">
         <v>1</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G137" s="18" t="s">
         <v>0</v>
@@ -6574,26 +6571,26 @@
       </c>
       <c r="M137" s="13"/>
       <c r="N137" s="17" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B138" s="31"/>
       <c r="C138" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="50">
         <v>1</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G138" s="15" t="s">
         <v>0</v>
       </c>
       <c r="H138" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="31" t="s">
@@ -6609,17 +6606,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="139" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B139" s="32"/>
       <c r="C139" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="51">
         <v>2</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G139" s="18" t="s">
         <v>0</v>
@@ -6641,18 +6638,18 @@
         <v>224</v>
       </c>
     </row>
-    <row r="140" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="13"/>
       <c r="B140" s="32"/>
       <c r="C140" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="51">
         <v>2</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G140" s="18" t="s">
         <v>0</v>
@@ -6675,17 +6672,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="141" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B141" s="32"/>
       <c r="C141" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="51">
         <v>2</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G141" s="18" t="s">
         <v>0</v>
@@ -6707,23 +6704,23 @@
         <v>305</v>
       </c>
     </row>
-    <row r="142" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B142" s="31"/>
       <c r="C142" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E142" s="50">
         <v>1</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G142" s="15"/>
       <c r="H142" s="20" t="s">
         <v>9</v>
       </c>
       <c r="I142" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J142" s="31" t="s">
         <v>155</v>
@@ -6735,26 +6732,26 @@
         <v>0</v>
       </c>
       <c r="N142" s="14" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="31"/>
       <c r="C143" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E143" s="50">
         <v>1</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G143" s="15"/>
       <c r="H143" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I143" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J143" s="31" t="s">
         <v>155</v>
@@ -6766,19 +6763,19 @@
         <v>0</v>
       </c>
       <c r="N143" s="14" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B144" s="32"/>
       <c r="C144" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E144" s="51">
         <v>1</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G144" s="18" t="s">
         <v>0</v>
@@ -6798,23 +6795,23 @@
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B145" s="31"/>
       <c r="C145" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E145" s="50">
         <v>1</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G145" s="15"/>
       <c r="H145" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I145" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J145" s="31" t="s">
         <v>155</v>
@@ -6826,21 +6823,21 @@
         <v>0</v>
       </c>
       <c r="N145" s="14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="13"/>
       <c r="B146" s="32"/>
       <c r="C146" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D146" s="13"/>
       <c r="E146" s="51">
         <v>1</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G146" s="18"/>
       <c r="H146" s="16" t="s">
@@ -6861,18 +6858,18 @@
         <v>283</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="13"/>
       <c r="B147" s="32"/>
       <c r="C147" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D147" s="13"/>
       <c r="E147" s="51">
         <v>1</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G147" s="18"/>
       <c r="H147" s="16" t="s">
@@ -6890,21 +6887,21 @@
       </c>
       <c r="M147" s="13"/>
       <c r="N147" s="17" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="13"/>
       <c r="B148" s="32"/>
       <c r="C148" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D148" s="13"/>
       <c r="E148" s="51">
         <v>1</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G148" s="18" t="s">
         <v>0</v>
@@ -6924,21 +6921,21 @@
       </c>
       <c r="M148" s="13"/>
       <c r="N148" s="17" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="13"/>
       <c r="B149" s="32"/>
       <c r="C149" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D149" s="13"/>
       <c r="E149" s="51">
         <v>1</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G149" s="18" t="s">
         <v>0</v>
@@ -6961,18 +6958,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="150" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="13"/>
       <c r="B150" s="32"/>
       <c r="C150" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D150" s="13"/>
       <c r="E150" s="51">
         <v>1</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G150" s="18"/>
       <c r="H150" s="16" t="s">
@@ -6995,16 +6992,16 @@
         <v>217</v>
       </c>
     </row>
-    <row r="151" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B151" s="31"/>
       <c r="C151" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E151" s="50">
         <v>1</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G151" s="15"/>
       <c r="H151" s="20" t="s">
@@ -7020,11 +7017,11 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="13"/>
       <c r="B152" s="32"/>
       <c r="C152" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D152" s="13"/>
       <c r="E152" s="51">
@@ -7047,14 +7044,14 @@
       </c>
       <c r="M152" s="13"/>
       <c r="N152" s="17" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="13"/>
       <c r="B153" s="32"/>
       <c r="C153" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D153" s="13"/>
       <c r="E153" s="51">
@@ -7080,16 +7077,16 @@
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B154" s="31"/>
       <c r="C154" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E154" s="50">
         <v>1</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G154" s="15"/>
       <c r="H154" s="20" t="s">
@@ -7105,11 +7102,11 @@
         <v>285</v>
       </c>
     </row>
-    <row r="155" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="13"/>
       <c r="B155" s="32"/>
       <c r="C155" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D155" s="13"/>
       <c r="E155" s="51">
@@ -7132,14 +7129,14 @@
       </c>
       <c r="M155" s="13"/>
       <c r="N155" s="17" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="13"/>
       <c r="B156" s="32"/>
       <c r="C156" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D156" s="13"/>
       <c r="E156" s="51">
@@ -7162,14 +7159,14 @@
       </c>
       <c r="M156" s="13"/>
       <c r="N156" s="17" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="13"/>
       <c r="B157" s="32"/>
       <c r="C157" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D157" s="13"/>
       <c r="E157" s="51">
@@ -7194,13 +7191,13 @@
       </c>
       <c r="M157" s="13"/>
       <c r="N157" s="17" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B158" s="32"/>
       <c r="C158" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E158" s="51">
         <v>2</v>
@@ -7224,10 +7221,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B159" s="32"/>
       <c r="C159" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E159" s="51">
         <v>2</v>
@@ -7251,10 +7248,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="160" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B160" s="32"/>
       <c r="C160" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E160" s="51">
         <v>2</v>
@@ -7278,10 +7275,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="161" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B161" s="31"/>
       <c r="C161" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E161" s="50">
         <v>2</v>
@@ -7307,23 +7304,23 @@
         <v>289</v>
       </c>
     </row>
-    <row r="162" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B162" s="31"/>
       <c r="C162" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E162" s="50">
         <v>1</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G162" s="15"/>
       <c r="H162" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I162" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J162" s="31" t="s">
         <v>155</v>
@@ -7331,26 +7328,26 @@
       <c r="K162" s="31"/>
       <c r="L162" s="31"/>
       <c r="N162" s="14" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B163" s="31"/>
       <c r="C163" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E163" s="50">
         <v>1</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G163" s="15"/>
       <c r="H163" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I163" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J163" s="31" t="s">
         <v>155</v>
@@ -7358,19 +7355,19 @@
       <c r="K163" s="31"/>
       <c r="L163" s="31"/>
       <c r="N163" s="14" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B164" s="31"/>
       <c r="C164" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E164" s="50">
         <v>1</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G164" s="15"/>
       <c r="H164" s="20" t="s">
@@ -7387,19 +7384,19 @@
         <v>17</v>
       </c>
       <c r="N164" s="14" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B165" s="31"/>
       <c r="C165" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E165" s="50">
         <v>1</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G165" s="15"/>
       <c r="H165" s="20" t="s">
@@ -7416,19 +7413,19 @@
         <v>0</v>
       </c>
       <c r="N165" s="14" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B166" s="31"/>
       <c r="C166" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E166" s="50">
         <v>1</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G166" s="15"/>
       <c r="H166" s="20" t="s">
@@ -7445,19 +7442,19 @@
         <v>0</v>
       </c>
       <c r="N166" s="14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B167" s="31"/>
       <c r="C167" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E167" s="50">
         <v>1</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G167" s="15"/>
       <c r="H167" s="20" t="s">
@@ -7477,23 +7474,23 @@
         <v>332</v>
       </c>
     </row>
-    <row r="168" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B168" s="31"/>
       <c r="C168" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E168" s="50">
         <v>1</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G168" s="15"/>
       <c r="H168" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I168" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J168" s="31" t="s">
         <v>155</v>
@@ -7508,16 +7505,16 @@
         <v>306</v>
       </c>
     </row>
-    <row r="169" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B169" s="31"/>
       <c r="C169" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E169" s="50">
         <v>1</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G169" s="15"/>
       <c r="H169" s="20" t="s">
@@ -7537,16 +7534,16 @@
         <v>307</v>
       </c>
     </row>
-    <row r="170" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B170" s="31"/>
       <c r="C170" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E170" s="50">
         <v>1</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G170" s="15"/>
       <c r="H170" s="20" t="s">
@@ -7564,16 +7561,16 @@
         <v>308</v>
       </c>
     </row>
-    <row r="171" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B171" s="31"/>
       <c r="C171" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E171" s="50">
         <v>1</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G171" s="15"/>
       <c r="H171" s="20" t="s">
@@ -7591,16 +7588,16 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B172" s="31"/>
       <c r="C172" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E172" s="50">
         <v>1</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G172" s="15"/>
       <c r="H172" s="20" t="s">
@@ -7618,16 +7615,16 @@
         <v>310</v>
       </c>
     </row>
-    <row r="173" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B173" s="31"/>
       <c r="C173" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E173" s="50">
         <v>1</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G173" s="15"/>
       <c r="H173" s="20" t="s">
@@ -7644,20 +7641,20 @@
         <v>17</v>
       </c>
       <c r="N173" s="14" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="13"/>
       <c r="B174" s="31"/>
       <c r="C174" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E174" s="50">
         <v>1</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G174" s="15"/>
       <c r="H174" s="20" t="s">
@@ -7676,15 +7673,15 @@
         <v>17</v>
       </c>
       <c r="N174" s="14" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G175" s="1"/>
       <c r="M175" s="44"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B176" s="31"/>
       <c r="C176" s="12" t="s">
         <v>146</v>
@@ -7711,7 +7708,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="13"/>
       <c r="B177" s="32"/>
       <c r="C177" s="13" t="s">
@@ -7726,7 +7723,7 @@
       </c>
       <c r="G177" s="13"/>
       <c r="H177" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I177" s="18"/>
       <c r="J177" s="32" t="s">
@@ -7736,10 +7733,10 @@
       <c r="L177" s="32"/>
       <c r="M177" s="13"/>
       <c r="N177" s="17" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B178" s="32"/>
       <c r="C178" s="13" t="s">
         <v>146</v>
@@ -7762,10 +7759,10 @@
         <v>0</v>
       </c>
       <c r="N178" s="17" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B179" s="31"/>
       <c r="C179" s="12" t="s">
         <v>146</v>
@@ -7777,7 +7774,7 @@
         <v>146</v>
       </c>
       <c r="H179" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I179" s="15"/>
       <c r="J179" s="31" t="s">
@@ -7787,10 +7784,10 @@
         <v>17</v>
       </c>
       <c r="N179" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B180" s="32"/>
       <c r="C180" s="13" t="s">
         <v>146</v>
@@ -7799,7 +7796,7 @@
         <v>2</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H180" s="22" t="s">
         <v>40</v>
@@ -7815,10 +7812,10 @@
         <v>0</v>
       </c>
       <c r="N180" s="17" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B181" s="32"/>
       <c r="C181" s="13" t="s">
         <v>146</v>
@@ -7827,7 +7824,7 @@
         <v>2</v>
       </c>
       <c r="F181" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H181" s="22" t="s">
         <v>277</v>
@@ -7843,10 +7840,10 @@
         <v>0</v>
       </c>
       <c r="N181" s="17" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B182" s="31"/>
       <c r="C182" s="12" t="s">
         <v>146</v>
@@ -7858,10 +7855,10 @@
         <v>146</v>
       </c>
       <c r="H182" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I182" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J182" s="31" t="s">
         <v>155</v>
@@ -7872,23 +7869,23 @@
       <c r="L182" s="31"/>
       <c r="M182" s="15"/>
       <c r="N182" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N183" s="44"/>
     </row>
-    <row r="184" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B184" s="31"/>
       <c r="C184" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E184" s="50">
         <v>0</v>
       </c>
       <c r="G184" s="15"/>
       <c r="H184" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I184" s="15"/>
       <c r="J184" s="31" t="s">
@@ -7902,18 +7899,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="185" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="13"/>
       <c r="B185" s="32"/>
       <c r="C185" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D185" s="13"/>
       <c r="E185" s="51">
         <v>1</v>
       </c>
       <c r="F185" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G185" s="18" t="s">
         <v>0</v>
@@ -7933,19 +7930,19 @@
       </c>
       <c r="M185" s="13"/>
       <c r="N185" s="17" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B186" s="32"/>
       <c r="C186" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E186" s="51">
         <v>1</v>
       </c>
       <c r="F186" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G186" s="18" t="s">
         <v>0</v>
@@ -7967,18 +7964,18 @@
         <v>227</v>
       </c>
     </row>
-    <row r="187" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="13"/>
       <c r="B187" s="32"/>
       <c r="C187" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D187" s="13"/>
       <c r="E187" s="51">
         <v>1</v>
       </c>
       <c r="F187" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G187" s="18" t="s">
         <v>0</v>
@@ -8001,18 +7998,18 @@
         <v>226</v>
       </c>
     </row>
-    <row r="188" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="13"/>
       <c r="B188" s="32"/>
       <c r="C188" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D188" s="13"/>
       <c r="E188" s="51">
         <v>1</v>
       </c>
       <c r="F188" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G188" s="18" t="s">
         <v>0</v>
@@ -8035,18 +8032,18 @@
         <v>228</v>
       </c>
     </row>
-    <row r="189" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="13"/>
       <c r="B189" s="32"/>
       <c r="C189" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D189" s="13"/>
       <c r="E189" s="51">
         <v>1</v>
       </c>
       <c r="F189" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G189" s="18"/>
       <c r="H189" s="16" t="s">
@@ -8069,18 +8066,18 @@
         <v>217</v>
       </c>
     </row>
-    <row r="190" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="13"/>
       <c r="B190" s="32"/>
       <c r="C190" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D190" s="13"/>
       <c r="E190" s="51">
         <v>1</v>
       </c>
       <c r="F190" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G190" s="18" t="s">
         <v>0</v>
@@ -8100,25 +8097,25 @@
       </c>
       <c r="M190" s="13"/>
       <c r="N190" s="17" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B191" s="32"/>
       <c r="C191" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E191" s="51">
         <v>1</v>
       </c>
       <c r="F191" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G191" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H191" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I191" s="18"/>
       <c r="J191" s="32" t="s">
@@ -8134,22 +8131,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="192" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B192" s="32"/>
       <c r="C192" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E192" s="51">
         <v>1</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G192" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H192" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I192" s="18"/>
       <c r="J192" s="32" t="s">
@@ -8165,16 +8162,16 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B193" s="32"/>
       <c r="C193" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E193" s="51">
         <v>1</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G193" s="18" t="s">
         <v>0</v>
@@ -8193,19 +8190,19 @@
         <v>0</v>
       </c>
       <c r="N193" s="17" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B194" s="32"/>
       <c r="C194" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E194" s="51">
         <v>1</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G194" s="18" t="s">
         <v>0</v>
@@ -8227,25 +8224,25 @@
         <v>230</v>
       </c>
     </row>
-    <row r="195" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B195" s="31"/>
       <c r="C195" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E195" s="50">
         <v>1</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G195" s="15" t="s">
         <v>0</v>
       </c>
       <c r="H195" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J195" s="31" t="s">
         <v>155</v>
@@ -8257,26 +8254,26 @@
         <v>0</v>
       </c>
       <c r="N195" s="14" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B196" s="31"/>
       <c r="C196" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E196" s="50">
         <v>1</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G196" s="15"/>
       <c r="H196" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I196" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J196" s="31" t="s">
         <v>155</v>
@@ -8284,16 +8281,16 @@
       <c r="K196" s="31"/>
       <c r="L196" s="31"/>
       <c r="N196" s="14" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N197" s="44"/>
     </row>
-    <row r="198" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B198" s="31"/>
       <c r="C198" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D198" s="13"/>
       <c r="E198" s="50">
@@ -8303,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="H198" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I198" s="15"/>
       <c r="J198" s="31" t="s">
@@ -8314,25 +8311,25 @@
         <v>17</v>
       </c>
       <c r="N198" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B199" s="31"/>
       <c r="C199" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E199" s="50">
         <v>1</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H199" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I199" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J199" s="31" t="s">
         <v>155</v>
@@ -8343,26 +8340,26 @@
       <c r="L199" s="31"/>
       <c r="M199" s="15"/>
       <c r="N199" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B200" s="31"/>
       <c r="C200" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E200" s="50">
         <v>1</v>
       </c>
       <c r="F200" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G200" s="15"/>
       <c r="H200" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="I200" s="15" t="s">
         <v>392</v>
-      </c>
-      <c r="I200" s="15" t="s">
-        <v>393</v>
       </c>
       <c r="J200" s="31" t="s">
         <v>155</v>
@@ -8375,10 +8372,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N201" s="44"/>
     </row>
-    <row r="202" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B202" s="31"/>
       <c r="C202" s="12" t="s">
         <v>28</v>
@@ -8407,7 +8404,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="203" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B203" s="31"/>
       <c r="C203" s="12" t="s">
         <v>28</v>
@@ -8438,7 +8435,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="13"/>
       <c r="B204" s="32"/>
       <c r="C204" s="13" t="s">
@@ -8469,10 +8466,10 @@
       </c>
       <c r="M204" s="13"/>
       <c r="N204" s="17" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="13"/>
       <c r="B205" s="32"/>
       <c r="C205" s="13" t="s">
@@ -8503,10 +8500,10 @@
       </c>
       <c r="M205" s="13"/>
       <c r="N205" s="17" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B206" s="31"/>
       <c r="C206" s="12" t="s">
         <v>28</v>
@@ -8539,7 +8536,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="207" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B207" s="31"/>
       <c r="C207" s="12" t="s">
         <v>28</v>
@@ -8554,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="H207" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I207" s="15"/>
       <c r="J207" s="31" t="s">
@@ -8567,10 +8564,10 @@
         <v>17</v>
       </c>
       <c r="N207" s="14" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B208" s="32"/>
       <c r="C208" s="13" t="s">
         <v>28</v>
@@ -8579,7 +8576,7 @@
         <v>2</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G208" s="18" t="s">
         <v>0</v>
@@ -8598,10 +8595,10 @@
         <v>0</v>
       </c>
       <c r="N208" s="17" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B209" s="32"/>
       <c r="C209" s="13" t="s">
         <v>28</v>
@@ -8610,7 +8607,7 @@
         <v>2</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G209" s="18" t="s">
         <v>0</v>
@@ -8629,10 +8626,10 @@
         <v>0</v>
       </c>
       <c r="N209" s="17" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B210" s="32"/>
       <c r="C210" s="13" t="s">
         <v>28</v>
@@ -8641,7 +8638,7 @@
         <v>2</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G210" s="18" t="s">
         <v>0</v>
@@ -8660,10 +8657,10 @@
         <v>17</v>
       </c>
       <c r="N210" s="17" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B211" s="32"/>
       <c r="C211" s="13" t="s">
         <v>28</v>
@@ -8672,7 +8669,7 @@
         <v>2</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G211" s="18" t="s">
         <v>0</v>
@@ -8691,10 +8688,10 @@
         <v>0</v>
       </c>
       <c r="N211" s="17" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B212" s="31"/>
       <c r="C212" s="12" t="s">
         <v>28</v>
@@ -8703,7 +8700,7 @@
         <v>2</v>
       </c>
       <c r="F212" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G212" s="15" t="s">
         <v>0</v>
@@ -8724,13 +8721,13 @@
         <v>0</v>
       </c>
       <c r="N212" s="14" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N213" s="44"/>
     </row>
-    <row r="214" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B214" s="31"/>
       <c r="C214" s="12" t="s">
         <v>267</v>
@@ -8759,7 +8756,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="215" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="13"/>
       <c r="B215" s="32"/>
       <c r="C215" s="13" t="s">
@@ -8784,10 +8781,10 @@
       <c r="L215" s="32"/>
       <c r="M215" s="13"/>
       <c r="N215" s="17" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B216" s="31"/>
       <c r="C216" s="12" t="s">
         <v>267</v>
@@ -8814,7 +8811,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="217" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="13"/>
       <c r="B217" s="32"/>
       <c r="C217" s="13" t="s">
@@ -8845,10 +8842,10 @@
       </c>
       <c r="M217" s="13"/>
       <c r="N217" s="17" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="13"/>
       <c r="B218" s="32"/>
       <c r="C218" s="13" t="s">
@@ -8879,10 +8876,10 @@
       </c>
       <c r="M218" s="13"/>
       <c r="N218" s="17" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="13"/>
       <c r="B219" s="32"/>
       <c r="C219" s="13" t="s">
@@ -8913,10 +8910,10 @@
       </c>
       <c r="M219" s="13"/>
       <c r="N219" s="17" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="220" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B220" s="32"/>
       <c r="C220" s="13" t="s">
         <v>267</v>
@@ -8945,7 +8942,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="221" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B221" s="32"/>
       <c r="C221" s="13" t="s">
         <v>267</v>
@@ -8974,7 +8971,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="223" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B223" s="31"/>
       <c r="C223" s="12" t="s">
         <v>291</v>
@@ -9003,7 +9000,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="224" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B224" s="31"/>
       <c r="C224" s="12" t="s">
         <v>291</v>
@@ -9030,7 +9027,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="225" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="13"/>
       <c r="B225" s="32"/>
       <c r="C225" s="13" t="s">
@@ -9057,10 +9054,10 @@
       <c r="L225" s="32"/>
       <c r="M225" s="13"/>
       <c r="N225" s="17" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B226" s="32"/>
       <c r="C226" s="13" t="s">
         <v>291</v>
@@ -9073,7 +9070,7 @@
       </c>
       <c r="G226" s="18"/>
       <c r="H226" s="22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I226" s="18"/>
       <c r="J226" s="32" t="s">
@@ -9084,10 +9081,10 @@
       </c>
       <c r="L226" s="32"/>
       <c r="N226" s="17" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B227" s="31"/>
       <c r="C227" s="12" t="s">
         <v>291</v>
@@ -9113,10 +9110,10 @@
       </c>
       <c r="L227" s="31"/>
       <c r="N227" s="14" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B228" s="32"/>
       <c r="C228" s="13" t="s">
         <v>291</v>
@@ -9140,10 +9137,10 @@
       </c>
       <c r="L228" s="32"/>
       <c r="N228" s="17" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="13"/>
       <c r="B229" s="32"/>
       <c r="C229" s="12" t="s">
@@ -9174,10 +9171,10 @@
       </c>
       <c r="M229" s="13"/>
       <c r="N229" s="17" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B230" s="31"/>
       <c r="C230" s="12" t="s">
         <v>291</v>
@@ -9204,7 +9201,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="231" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B231" s="32"/>
       <c r="C231" s="13" t="s">
         <v>291</v>
@@ -9228,10 +9225,10 @@
         <v>17</v>
       </c>
       <c r="N231" s="17" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B232" s="32"/>
       <c r="C232" s="13" t="s">
         <v>291</v>
@@ -9253,10 +9250,10 @@
       <c r="K232" s="32"/>
       <c r="L232" s="32"/>
       <c r="N232" s="17" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B233" s="31"/>
       <c r="C233" s="12" t="s">
         <v>291</v>
@@ -9269,7 +9266,7 @@
       </c>
       <c r="G233" s="15"/>
       <c r="H233" s="26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I233" s="15" t="s">
         <v>104</v>
@@ -9280,10 +9277,10 @@
       <c r="K233" s="31"/>
       <c r="L233" s="31"/>
       <c r="N233" s="14" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="13"/>
       <c r="B234" s="32"/>
       <c r="C234" s="13" t="s">
@@ -9310,10 +9307,10 @@
       </c>
       <c r="M234" s="13"/>
       <c r="N234" s="17" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="13"/>
       <c r="B235" s="32"/>
       <c r="C235" s="13" t="s">
@@ -9340,10 +9337,10 @@
       </c>
       <c r="M235" s="13"/>
       <c r="N235" s="17" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B236" s="32"/>
       <c r="C236" s="13" t="s">
         <v>291</v>
@@ -9370,7 +9367,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="237" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B237" s="32"/>
       <c r="C237" s="13" t="s">
         <v>291</v>
@@ -9395,7 +9392,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="238" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B238" s="31"/>
       <c r="C238" s="12" t="s">
         <v>291</v>
@@ -9408,10 +9405,10 @@
       </c>
       <c r="G238" s="15"/>
       <c r="H238" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I238" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J238" s="31" t="s">
         <v>155</v>
@@ -9422,13 +9419,13 @@
         <v>327</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N239" s="44"/>
     </row>
-    <row r="240" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B240" s="31"/>
       <c r="C240" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D240" s="13"/>
       <c r="E240" s="50">
@@ -9439,7 +9436,7 @@
       </c>
       <c r="G240" s="15"/>
       <c r="H240" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I240" s="15"/>
       <c r="J240" s="31" t="s">
@@ -9450,23 +9447,23 @@
         <v>17</v>
       </c>
       <c r="N240" s="14" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B241" s="31"/>
       <c r="C241" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E241" s="50">
         <v>1</v>
       </c>
       <c r="F241" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G241" s="15"/>
       <c r="H241" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I241" s="15" t="s">
         <v>27</v>
@@ -9477,23 +9474,23 @@
       <c r="K241" s="31"/>
       <c r="L241" s="31"/>
       <c r="N241" s="14" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B242" s="31"/>
       <c r="C242" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E242" s="50">
         <v>1</v>
       </c>
       <c r="F242" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G242" s="15"/>
       <c r="H242" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I242" s="15" t="s">
         <v>27</v>
@@ -9504,23 +9501,23 @@
       <c r="K242" s="31"/>
       <c r="L242" s="31"/>
       <c r="N242" s="14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B243" s="31"/>
       <c r="C243" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E243" s="50">
         <v>1</v>
       </c>
       <c r="F243" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G243" s="15"/>
       <c r="H243" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I243" s="15"/>
       <c r="J243" s="31" t="s">
@@ -9531,21 +9528,21 @@
         <v>17</v>
       </c>
       <c r="N243" s="14" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="13"/>
       <c r="B244" s="32"/>
       <c r="C244" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D244" s="13"/>
       <c r="E244" s="51">
         <v>2</v>
       </c>
       <c r="F244" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G244" s="18"/>
       <c r="H244" s="22" t="s">
@@ -9559,19 +9556,19 @@
       <c r="L244" s="32"/>
       <c r="M244" s="13"/>
       <c r="N244" s="17" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B245" s="32"/>
       <c r="C245" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E245" s="51">
         <v>2</v>
       </c>
       <c r="F245" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G245" s="18"/>
       <c r="H245" s="22" t="s">
@@ -9584,19 +9581,19 @@
       <c r="K245" s="32"/>
       <c r="L245" s="32"/>
       <c r="N245" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B246" s="32"/>
       <c r="C246" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E246" s="51">
         <v>2</v>
       </c>
       <c r="F246" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G246" s="18"/>
       <c r="H246" s="22" t="s">
@@ -9613,21 +9610,21 @@
         <v>0</v>
       </c>
       <c r="N246" s="17" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="13"/>
       <c r="B247" s="32"/>
       <c r="C247" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D247" s="13"/>
       <c r="E247" s="51">
         <v>2</v>
       </c>
       <c r="F247" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G247" s="15"/>
       <c r="H247" s="24" t="s">
@@ -9644,21 +9641,21 @@
         <v>0</v>
       </c>
       <c r="N247" s="14" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="13"/>
       <c r="B248" s="32"/>
       <c r="C248" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D248" s="13"/>
       <c r="E248" s="51">
         <v>1</v>
       </c>
       <c r="F248" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G248" s="18"/>
       <c r="H248" s="16" t="s">
@@ -9678,21 +9675,21 @@
       </c>
       <c r="M248" s="13"/>
       <c r="N248" s="19" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="13"/>
       <c r="B249" s="32"/>
       <c r="C249" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D249" s="13"/>
       <c r="E249" s="51">
         <v>1</v>
       </c>
       <c r="F249" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G249" s="18"/>
       <c r="H249" s="16" t="s">
@@ -9712,23 +9709,23 @@
       </c>
       <c r="M249" s="13"/>
       <c r="N249" s="19" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B250" s="31"/>
       <c r="C250" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E250" s="50">
         <v>1</v>
       </c>
       <c r="F250" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G250" s="15"/>
       <c r="H250" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I250" s="15" t="s">
         <v>104</v>
@@ -9743,23 +9740,23 @@
         <v>0</v>
       </c>
       <c r="N250" s="35" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B251" s="32"/>
       <c r="C251" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E251" s="51">
         <v>1</v>
       </c>
       <c r="F251" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G251" s="18"/>
       <c r="H251" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I251" s="18"/>
       <c r="J251" s="32" t="s">
@@ -9772,23 +9769,23 @@
         <v>0</v>
       </c>
       <c r="N251" s="19" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B252" s="32"/>
       <c r="C252" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E252" s="51">
         <v>1</v>
       </c>
       <c r="F252" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G252" s="18"/>
       <c r="H252" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I252" s="18"/>
       <c r="J252" s="32" t="s">
@@ -9801,23 +9798,23 @@
         <v>0</v>
       </c>
       <c r="N252" s="19" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B253" s="32"/>
       <c r="C253" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E253" s="51">
         <v>1</v>
       </c>
       <c r="F253" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G253" s="18"/>
       <c r="H253" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I253" s="18"/>
       <c r="J253" s="32" t="s">
@@ -9830,25 +9827,25 @@
         <v>0</v>
       </c>
       <c r="N253" s="17" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="13"/>
       <c r="B254" s="32"/>
       <c r="C254" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D254" s="13"/>
       <c r="E254" s="51">
         <v>1</v>
       </c>
       <c r="F254" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G254" s="18"/>
       <c r="H254" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I254" s="18"/>
       <c r="J254" s="32" t="s">
@@ -9862,23 +9859,23 @@
       </c>
       <c r="M254" s="13"/>
       <c r="N254" s="17" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B255" s="32"/>
       <c r="C255" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E255" s="51">
         <v>1</v>
       </c>
       <c r="F255" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G255" s="18"/>
       <c r="H255" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I255" s="18"/>
       <c r="J255" s="32" t="s">
@@ -9894,16 +9891,16 @@
         <v>195</v>
       </c>
     </row>
-    <row r="256" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B256" s="32"/>
       <c r="C256" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E256" s="51">
         <v>1</v>
       </c>
       <c r="F256" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G256" s="18"/>
       <c r="H256" s="16" t="s">
@@ -9923,16 +9920,16 @@
         <v>196</v>
       </c>
     </row>
-    <row r="257" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B257" s="32"/>
       <c r="C257" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E257" s="51">
         <v>1</v>
       </c>
       <c r="F257" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G257" s="18" t="s">
         <v>0</v>
@@ -9954,16 +9951,16 @@
         <v>198</v>
       </c>
     </row>
-    <row r="258" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B258" s="32"/>
       <c r="C258" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E258" s="51">
         <v>1</v>
       </c>
       <c r="F258" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G258" s="18" t="s">
         <v>0</v>
@@ -9982,19 +9979,19 @@
         <v>0</v>
       </c>
       <c r="N258" s="17" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B259" s="32"/>
       <c r="C259" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E259" s="51">
         <v>1</v>
       </c>
       <c r="F259" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G259" s="18" t="s">
         <v>0</v>
@@ -10016,18 +10013,18 @@
         <v>197</v>
       </c>
     </row>
-    <row r="260" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="13"/>
       <c r="B260" s="32"/>
       <c r="C260" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D260" s="13"/>
       <c r="E260" s="51">
         <v>1</v>
       </c>
       <c r="F260" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G260" s="18" t="s">
         <v>0</v>
@@ -10050,24 +10047,24 @@
         <v>218</v>
       </c>
     </row>
-    <row r="261" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B261" s="31"/>
       <c r="C261" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D261" s="13"/>
       <c r="E261" s="51">
         <v>1</v>
       </c>
       <c r="F261" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G261" s="15"/>
       <c r="H261" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I261" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J261" s="31" t="s">
         <v>155</v>
@@ -10075,13 +10072,13 @@
       <c r="K261" s="31"/>
       <c r="L261" s="31"/>
       <c r="N261" s="14" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N262" s="44"/>
     </row>
-    <row r="263" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B263" s="31"/>
       <c r="C263" s="12" t="s">
         <v>256</v>
@@ -10108,10 +10105,10 @@
         <v>17</v>
       </c>
       <c r="N263" s="14" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="13"/>
       <c r="B264" s="32"/>
       <c r="C264" s="13" t="s">
@@ -10126,7 +10123,7 @@
       </c>
       <c r="G264" s="18"/>
       <c r="H264" s="16" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I264" s="18"/>
       <c r="J264" s="32" t="s">
@@ -10138,10 +10135,10 @@
       <c r="L264" s="32"/>
       <c r="M264" s="13"/>
       <c r="N264" s="17" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="265" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B265" s="32"/>
       <c r="C265" s="13" t="s">
         <v>256</v>
@@ -10170,7 +10167,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="266" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="13"/>
       <c r="B266" s="32"/>
       <c r="C266" s="13" t="s">
@@ -10195,10 +10192,10 @@
       <c r="L266" s="32"/>
       <c r="M266" s="13"/>
       <c r="N266" s="17" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B267" s="32"/>
       <c r="C267" s="13" t="s">
         <v>256</v>
@@ -10220,10 +10217,10 @@
       <c r="K267" s="32"/>
       <c r="L267" s="32"/>
       <c r="N267" s="17" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B268" s="31"/>
       <c r="C268" s="12" t="s">
         <v>256</v>
@@ -10249,10 +10246,10 @@
         <v>0</v>
       </c>
       <c r="N268" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B269" s="31"/>
       <c r="C269" s="12" t="s">
         <v>256</v>
@@ -10278,10 +10275,10 @@
         <v>0</v>
       </c>
       <c r="N269" s="14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B270" s="31"/>
       <c r="C270" s="12" t="s">
         <v>256</v>
@@ -10308,10 +10305,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N271" s="44"/>
     </row>
-    <row r="272" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B272" s="31"/>
       <c r="C272" s="12" t="s">
         <v>271</v>
@@ -10337,7 +10334,7 @@
       <c r="M272" s="64"/>
       <c r="N272" s="54"/>
     </row>
-    <row r="273" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B273" s="32"/>
       <c r="C273" s="13" t="s">
         <v>271</v>
@@ -10368,7 +10365,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="274" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B274" s="32"/>
       <c r="C274" s="13" t="s">
         <v>271</v>
@@ -10399,7 +10396,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="275" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="13"/>
       <c r="B275" s="32"/>
       <c r="C275" s="13" t="s">
@@ -10433,7 +10430,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="276" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="13"/>
       <c r="B276" s="32"/>
       <c r="C276" s="13" t="s">
@@ -10467,7 +10464,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="277" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="13"/>
       <c r="B277" s="32"/>
       <c r="C277" s="13" t="s">
@@ -10484,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="H277" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I277" s="18"/>
       <c r="J277" s="32" t="s">
@@ -10496,10 +10493,10 @@
       </c>
       <c r="M277" s="13"/>
       <c r="N277" s="17" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="278" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B278" s="32"/>
       <c r="C278" s="13" t="s">
         <v>271</v>
@@ -10514,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="H278" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I278" s="18"/>
       <c r="J278" s="32" t="s">
@@ -10528,7 +10525,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="279" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="13"/>
       <c r="B279" s="32"/>
       <c r="C279" s="13" t="s">
@@ -10559,10 +10556,10 @@
       </c>
       <c r="M279" s="13"/>
       <c r="N279" s="17" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="280" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="13"/>
       <c r="B280" s="32"/>
       <c r="C280" s="13" t="s">
@@ -10595,10 +10592,10 @@
       </c>
       <c r="M280" s="13"/>
       <c r="N280" s="17" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="281" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B281" s="32"/>
       <c r="C281" s="13" t="s">
         <v>271</v>
@@ -10613,7 +10610,7 @@
         <v>0</v>
       </c>
       <c r="H281" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I281" s="18"/>
       <c r="J281" s="32" t="s">
@@ -10626,10 +10623,10 @@
         <v>0</v>
       </c>
       <c r="N281" s="17" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="282" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B282" s="32"/>
       <c r="C282" s="13" t="s">
         <v>271</v>
@@ -10657,10 +10654,10 @@
         <v>0</v>
       </c>
       <c r="N282" s="17" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="283" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B283" s="31"/>
       <c r="C283" s="12" t="s">
         <v>271</v>
@@ -10676,10 +10673,10 @@
       </c>
       <c r="G283" s="15"/>
       <c r="H283" s="65" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I283" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J283" s="62" t="s">
         <v>155</v>
@@ -10692,7 +10689,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="284" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B284" s="31"/>
       <c r="C284" s="13" t="s">
         <v>271</v>
@@ -10707,10 +10704,10 @@
         <v>0</v>
       </c>
       <c r="H284" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I284" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J284" s="31" t="s">
         <v>155</v>
@@ -10722,10 +10719,10 @@
         <v>0</v>
       </c>
       <c r="N284" s="14" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="285" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B285" s="31"/>
       <c r="C285" s="12" t="s">
         <v>271</v>
@@ -10756,7 +10753,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="286" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B286" s="31"/>
       <c r="C286" s="12" t="s">
         <v>271</v>
@@ -10787,7 +10784,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B287" s="31"/>
       <c r="C287" s="12" t="s">
         <v>271</v>
@@ -10802,7 +10799,7 @@
         <v>271</v>
       </c>
       <c r="H287" s="65" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I287" s="35" t="s">
         <v>104</v>
@@ -10816,7 +10813,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="288" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B288" s="31"/>
       <c r="C288" s="12" t="s">
         <v>271</v>
@@ -10847,7 +10844,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="289" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B289" s="31"/>
       <c r="C289" s="12" t="s">
         <v>271</v>
@@ -10875,10 +10872,10 @@
       </c>
       <c r="L289" s="50"/>
       <c r="N289" s="66" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="290" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B290" s="31"/>
       <c r="C290" s="12" t="s">
         <v>271</v>
@@ -10901,10 +10898,10 @@
       <c r="K290" s="31"/>
       <c r="L290" s="50"/>
       <c r="N290" s="66" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="291" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B291" s="31"/>
       <c r="C291" s="12" t="s">
         <v>271</v>
@@ -10919,10 +10916,10 @@
         <v>271</v>
       </c>
       <c r="H291" s="65" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I291" s="35" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J291" s="62" t="s">
         <v>155</v>
@@ -10937,7 +10934,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="292" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B292" s="31"/>
       <c r="C292" s="12" t="s">
         <v>271</v>
@@ -10952,7 +10949,7 @@
         <v>271</v>
       </c>
       <c r="H292" s="65" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I292" s="35" t="s">
         <v>28</v>
@@ -10966,7 +10963,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="293" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B293" s="31"/>
       <c r="C293" s="12" t="s">
         <v>271</v>
@@ -10995,7 +10992,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="294" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B294" s="31"/>
       <c r="C294" s="12" t="s">
         <v>271</v>
@@ -11007,7 +11004,7 @@
         <v>271</v>
       </c>
       <c r="H294" s="65" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I294" s="35" t="s">
         <v>291</v>
@@ -11021,7 +11018,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B295" s="31"/>
       <c r="C295" s="12" t="s">
         <v>271</v>
@@ -11050,7 +11047,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="296" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B296" s="31"/>
       <c r="C296" s="12" t="s">
         <v>271</v>
@@ -11077,7 +11074,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="297" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="13"/>
       <c r="B297" s="32"/>
       <c r="C297" s="13" t="s">
@@ -11094,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="H297" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I297" s="18"/>
       <c r="J297" s="32" t="s">
@@ -11108,10 +11105,10 @@
       </c>
       <c r="M297" s="13"/>
       <c r="N297" s="17" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="298" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="13"/>
       <c r="B298" s="32"/>
       <c r="C298" s="13" t="s">
@@ -11128,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="H298" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I298" s="18"/>
       <c r="J298" s="32" t="s">
@@ -11142,10 +11139,10 @@
       </c>
       <c r="M298" s="13"/>
       <c r="N298" s="17" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="299" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B299" s="31"/>
       <c r="C299" s="12" t="s">
         <v>271</v>
@@ -11176,7 +11173,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="300" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="13"/>
       <c r="B300" s="32"/>
       <c r="C300" s="13" t="s">
@@ -11210,7 +11207,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="301" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B301" s="31"/>
       <c r="C301" s="12" t="s">
         <v>271</v>
@@ -11228,7 +11225,7 @@
         <v>93</v>
       </c>
       <c r="I301" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J301" s="31" t="s">
         <v>155</v>
@@ -11243,7 +11240,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="302" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B302" s="31"/>
       <c r="C302" s="12" t="s">
         <v>271</v>
@@ -11274,7 +11271,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="303" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="13"/>
       <c r="B303" s="32"/>
       <c r="C303" s="13" t="s">
@@ -11308,7 +11305,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="304" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B304" s="32"/>
       <c r="C304" s="13" t="s">
         <v>271</v>
@@ -11326,7 +11323,7 @@
         <v>93</v>
       </c>
       <c r="I304" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J304" s="31" t="s">
         <v>155</v>
@@ -11341,7 +11338,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="305" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B305" s="31"/>
       <c r="C305" s="12" t="s">
         <v>271</v>
@@ -11372,7 +11369,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="306" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="13"/>
       <c r="B306" s="32"/>
       <c r="C306" s="13" t="s">
@@ -11406,7 +11403,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="307" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B307" s="31"/>
       <c r="C307" s="12" t="s">
         <v>271</v>
@@ -11424,7 +11421,7 @@
         <v>93</v>
       </c>
       <c r="I307" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J307" s="31" t="s">
         <v>155</v>
@@ -11439,7 +11436,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="308" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B308" s="31"/>
       <c r="C308" s="12" t="s">
         <v>271</v>
@@ -11454,7 +11451,7 @@
         <v>271</v>
       </c>
       <c r="H308" s="65" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I308" s="35"/>
       <c r="J308" s="62" t="s">
@@ -11468,7 +11465,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="309" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B309" s="31"/>
       <c r="C309" s="12" t="s">
         <v>271</v>
@@ -11477,7 +11474,7 @@
         <v>2</v>
       </c>
       <c r="F309" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G309" s="15"/>
       <c r="H309" s="24" t="s">
@@ -11495,7 +11492,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="310" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="13"/>
       <c r="B310" s="32"/>
       <c r="C310" s="13" t="s">
@@ -11522,10 +11519,10 @@
       </c>
       <c r="M310" s="13"/>
       <c r="N310" s="17" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="311" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B311" s="32"/>
       <c r="C311" s="13" t="s">
         <v>271</v>
@@ -11554,7 +11551,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="312" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B312" s="32"/>
       <c r="C312" s="13" t="s">
         <v>271</v>
@@ -11583,7 +11580,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="313" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="13"/>
       <c r="B313" s="32"/>
       <c r="C313" s="13" t="s">
@@ -11615,7 +11612,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="314" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B314" s="31"/>
       <c r="C314" s="12" t="s">
         <v>271</v>
@@ -11624,7 +11621,7 @@
         <v>2</v>
       </c>
       <c r="F314" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G314" s="15"/>
       <c r="H314" s="24" t="s">
@@ -11640,7 +11637,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="315" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B315" s="32"/>
       <c r="C315" s="13" t="s">
         <v>271</v>
@@ -11669,7 +11666,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="316" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B316" s="32"/>
       <c r="C316" s="13" t="s">
         <v>271</v>
@@ -11698,7 +11695,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="317" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="12"/>
       <c r="B317" s="31"/>
       <c r="C317" s="12" t="s">
@@ -11709,7 +11706,7 @@
         <v>2</v>
       </c>
       <c r="F317" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G317" s="15"/>
       <c r="H317" s="24" t="s">
@@ -11726,7 +11723,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="318" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B318" s="32"/>
       <c r="C318" s="13" t="s">
         <v>271</v>
@@ -11755,7 +11752,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="319" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B319" s="32"/>
       <c r="C319" s="13" t="s">
         <v>271</v>
@@ -11784,7 +11781,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="320" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B320" s="31"/>
       <c r="C320" s="12" t="s">
         <v>271</v>
@@ -11800,7 +11797,7 @@
         <v>93</v>
       </c>
       <c r="I320" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J320" s="31" t="s">
         <v>155</v>
@@ -11813,7 +11810,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="321" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="13"/>
       <c r="B321" s="32"/>
       <c r="C321" s="13" t="s">
@@ -11840,10 +11837,10 @@
       </c>
       <c r="M321" s="13"/>
       <c r="N321" s="17" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="322" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="13"/>
       <c r="B322" s="32"/>
       <c r="C322" s="13" t="s">
@@ -11873,7 +11870,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="323" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B323" s="31"/>
       <c r="C323" s="12" t="s">
         <v>271</v>
@@ -11888,7 +11885,7 @@
         <v>271</v>
       </c>
       <c r="H323" s="65" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I323" s="35"/>
       <c r="J323" s="62" t="s">
@@ -11902,7 +11899,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="324" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B324" s="31"/>
       <c r="C324" s="12" t="s">
         <v>271</v>
@@ -11911,7 +11908,7 @@
         <v>2</v>
       </c>
       <c r="F324" s="35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G324" s="15"/>
       <c r="H324" s="24" t="s">
@@ -11931,7 +11928,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="325" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B325" s="31"/>
       <c r="C325" s="12" t="s">
         <v>271</v>
@@ -11949,7 +11946,7 @@
         <v>137</v>
       </c>
       <c r="I325" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J325" s="31" t="s">
         <v>155</v>
@@ -11959,10 +11956,10 @@
         <v>0</v>
       </c>
       <c r="N325" s="14" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="326" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B326" s="31"/>
       <c r="C326" s="12" t="s">
         <v>271</v>
@@ -11980,7 +11977,7 @@
         <v>138</v>
       </c>
       <c r="I326" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J326" s="31" t="s">
         <v>155</v>
@@ -11990,10 +11987,10 @@
         <v>0</v>
       </c>
       <c r="N326" s="14" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="327" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B327" s="31"/>
       <c r="C327" s="12" t="s">
         <v>271</v>
@@ -12011,7 +12008,7 @@
         <v>139</v>
       </c>
       <c r="I327" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J327" s="31" t="s">
         <v>155</v>
@@ -12023,10 +12020,10 @@
         <v>0</v>
       </c>
       <c r="N327" s="14" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="328" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B328" s="31"/>
       <c r="C328" s="12" t="s">
         <v>271</v>
@@ -12044,7 +12041,7 @@
         <v>135</v>
       </c>
       <c r="I328" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J328" s="31" t="s">
         <v>155</v>
@@ -12054,10 +12051,10 @@
         <v>0</v>
       </c>
       <c r="N328" s="14" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="329" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B329" s="31"/>
       <c r="C329" s="12" t="s">
         <v>271</v>
@@ -12075,7 +12072,7 @@
         <v>136</v>
       </c>
       <c r="I329" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J329" s="31" t="s">
         <v>155</v>
@@ -12085,10 +12082,10 @@
         <v>0</v>
       </c>
       <c r="N329" s="14" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="330" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B330" s="31"/>
       <c r="C330" s="12" t="s">
         <v>271</v>
@@ -12103,10 +12100,10 @@
         <v>0</v>
       </c>
       <c r="H330" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J330" s="31" t="s">
         <v>155</v>
@@ -12118,10 +12115,10 @@
         <v>0</v>
       </c>
       <c r="N330" s="14" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="331" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B331" s="31"/>
       <c r="C331" s="12" t="s">
         <v>271</v>
@@ -12130,7 +12127,7 @@
         <v>2</v>
       </c>
       <c r="F331" s="35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G331" s="15"/>
       <c r="H331" s="24" t="s">
@@ -12148,7 +12145,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="332" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B332" s="31"/>
       <c r="C332" s="12" t="s">
         <v>271</v>
@@ -12166,7 +12163,7 @@
         <v>137</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J332" s="31" t="s">
         <v>155</v>
@@ -12176,10 +12173,10 @@
         <v>0</v>
       </c>
       <c r="N332" s="14" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="333" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B333" s="31"/>
       <c r="C333" s="12" t="s">
         <v>271</v>
@@ -12197,7 +12194,7 @@
         <v>138</v>
       </c>
       <c r="I333" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J333" s="31" t="s">
         <v>155</v>
@@ -12207,10 +12204,10 @@
         <v>0</v>
       </c>
       <c r="N333" s="14" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="334" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B334" s="31"/>
       <c r="C334" s="12" t="s">
         <v>271</v>
@@ -12228,7 +12225,7 @@
         <v>139</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J334" s="31" t="s">
         <v>155</v>
@@ -12240,10 +12237,10 @@
         <v>0</v>
       </c>
       <c r="N334" s="14" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="335" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B335" s="31"/>
       <c r="C335" s="12" t="s">
         <v>271</v>
@@ -12261,7 +12258,7 @@
         <v>135</v>
       </c>
       <c r="I335" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J335" s="31" t="s">
         <v>155</v>
@@ -12271,10 +12268,10 @@
         <v>0</v>
       </c>
       <c r="N335" s="14" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="336" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B336" s="31"/>
       <c r="C336" s="12" t="s">
         <v>271</v>
@@ -12292,7 +12289,7 @@
         <v>136</v>
       </c>
       <c r="I336" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J336" s="31" t="s">
         <v>155</v>
@@ -12302,10 +12299,10 @@
         <v>0</v>
       </c>
       <c r="N336" s="14" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="337" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="337" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B337" s="31"/>
       <c r="C337" s="12" t="s">
         <v>271</v>
@@ -12320,10 +12317,10 @@
         <v>0</v>
       </c>
       <c r="H337" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I337" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J337" s="31" t="s">
         <v>155</v>
@@ -12335,10 +12332,10 @@
         <v>0</v>
       </c>
       <c r="N337" s="14" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="338" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="338" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B338" s="31"/>
       <c r="C338" s="12" t="s">
         <v>271</v>
@@ -12367,7 +12364,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="339" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B339" s="31"/>
       <c r="C339" s="12" t="s">
         <v>271</v>
@@ -12385,7 +12382,7 @@
         <v>140</v>
       </c>
       <c r="I339" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J339" s="31" t="s">
         <v>155</v>
@@ -12400,7 +12397,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="340" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B340" s="31"/>
       <c r="C340" s="12" t="s">
         <v>271</v>
@@ -12418,7 +12415,7 @@
         <v>141</v>
       </c>
       <c r="I340" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J340" s="31" t="s">
         <v>155</v>
@@ -12433,7 +12430,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="341" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B341" s="31"/>
       <c r="C341" s="12" t="s">
         <v>271</v>
@@ -12451,7 +12448,7 @@
         <v>142</v>
       </c>
       <c r="I341" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J341" s="31" t="s">
         <v>155</v>
@@ -12466,7 +12463,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="342" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B342" s="31"/>
       <c r="C342" s="12" t="s">
         <v>271</v>
@@ -12481,7 +12478,7 @@
         <v>271</v>
       </c>
       <c r="H342" s="65" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I342" s="35"/>
       <c r="J342" s="62" t="s">
@@ -12490,10 +12487,10 @@
       <c r="K342" s="31"/>
       <c r="L342" s="50"/>
       <c r="N342" s="66" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="343" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="343" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B343" s="32"/>
       <c r="C343" s="13" t="s">
         <v>271</v>
@@ -12502,7 +12499,7 @@
         <v>2</v>
       </c>
       <c r="F343" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G343" s="18" t="s">
         <v>0</v>
@@ -12524,7 +12521,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="344" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B344" s="32"/>
       <c r="C344" s="13" t="s">
         <v>271</v>
@@ -12533,7 +12530,7 @@
         <v>2</v>
       </c>
       <c r="F344" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G344" s="18" t="s">
         <v>0</v>
@@ -12553,7 +12550,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="345" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B345" s="32"/>
       <c r="C345" s="13" t="s">
         <v>271</v>
@@ -12562,7 +12559,7 @@
         <v>2</v>
       </c>
       <c r="F345" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G345" s="18" t="s">
         <v>0</v>
@@ -12584,7 +12581,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="346" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B346" s="32"/>
       <c r="C346" s="13" t="s">
         <v>271</v>
@@ -12593,7 +12590,7 @@
         <v>2</v>
       </c>
       <c r="F346" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G346" s="18" t="s">
         <v>0</v>
@@ -12615,7 +12612,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="347" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B347" s="31"/>
       <c r="C347" s="12" t="s">
         <v>271</v>
@@ -12624,7 +12621,7 @@
         <v>2</v>
       </c>
       <c r="F347" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G347" s="15" t="s">
         <v>0</v>
@@ -12643,10 +12640,10 @@
         <v>0</v>
       </c>
       <c r="N347" s="14" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="348" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="348" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B348" s="31"/>
       <c r="C348" s="12" t="s">
         <v>271</v>
@@ -12661,7 +12658,7 @@
         <v>271</v>
       </c>
       <c r="H348" s="65" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I348" s="35"/>
       <c r="J348" s="62" t="s">
@@ -12670,10 +12667,10 @@
       <c r="K348" s="31"/>
       <c r="L348" s="50"/>
       <c r="N348" s="66" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="349" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="349" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B349" s="32"/>
       <c r="C349" s="13" t="s">
         <v>271</v>
@@ -12682,7 +12679,7 @@
         <v>2</v>
       </c>
       <c r="F349" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G349" s="18" t="s">
         <v>0</v>
@@ -12704,7 +12701,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="350" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B350" s="32"/>
       <c r="C350" s="13" t="s">
         <v>271</v>
@@ -12713,7 +12710,7 @@
         <v>2</v>
       </c>
       <c r="F350" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G350" s="18" t="s">
         <v>0</v>
@@ -12733,7 +12730,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="351" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B351" s="32"/>
       <c r="C351" s="13" t="s">
         <v>271</v>
@@ -12742,7 +12739,7 @@
         <v>2</v>
       </c>
       <c r="F351" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G351" s="18" t="s">
         <v>0</v>
@@ -12764,7 +12761,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="352" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B352" s="32"/>
       <c r="C352" s="13" t="s">
         <v>271</v>
@@ -12773,7 +12770,7 @@
         <v>2</v>
       </c>
       <c r="F352" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G352" s="18" t="s">
         <v>0</v>
@@ -12795,7 +12792,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="353" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B353" s="31"/>
       <c r="C353" s="12" t="s">
         <v>271</v>
@@ -12804,7 +12801,7 @@
         <v>2</v>
       </c>
       <c r="F353" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G353" s="15" t="s">
         <v>0</v>
@@ -12823,10 +12820,10 @@
         <v>0</v>
       </c>
       <c r="N353" s="14" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="354" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B354" s="32"/>
       <c r="C354" s="13" t="s">
         <v>271</v>
@@ -12856,10 +12853,10 @@
         <v>0</v>
       </c>
       <c r="N354" s="17" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="355" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B355" s="32"/>
       <c r="C355" s="13" t="s">
         <v>271</v>
@@ -12889,10 +12886,10 @@
         <v>0</v>
       </c>
       <c r="N355" s="17" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="356" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B356" s="32"/>
       <c r="C356" s="13" t="s">
         <v>271</v>
@@ -12922,10 +12919,10 @@
         <v>0</v>
       </c>
       <c r="N356" s="17" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="357" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B357" s="31"/>
       <c r="C357" s="12" t="s">
         <v>271</v>
@@ -12943,7 +12940,7 @@
         <v>72</v>
       </c>
       <c r="I357" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J357" s="31" t="s">
         <v>155</v>
@@ -12955,10 +12952,10 @@
         <v>0</v>
       </c>
       <c r="N357" s="14" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="358" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B358" s="31"/>
       <c r="C358" s="12" t="s">
         <v>271</v>
@@ -12976,7 +12973,7 @@
         <v>131</v>
       </c>
       <c r="I358" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J358" s="31" t="s">
         <v>155</v>
@@ -12988,10 +12985,10 @@
         <v>0</v>
       </c>
       <c r="N358" s="14" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="359" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B359" s="31"/>
       <c r="C359" s="12" t="s">
         <v>271</v>
@@ -13009,7 +13006,7 @@
         <v>73</v>
       </c>
       <c r="I359" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J359" s="31" t="s">
         <v>155</v>
@@ -13021,10 +13018,10 @@
         <v>0</v>
       </c>
       <c r="N359" s="14" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="360" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B360" s="31"/>
       <c r="C360" s="12" t="s">
         <v>271</v>
@@ -13042,7 +13039,7 @@
         <v>132</v>
       </c>
       <c r="I360" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J360" s="31" t="s">
         <v>155</v>
@@ -13054,10 +13051,10 @@
         <v>0</v>
       </c>
       <c r="N360" s="14" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="361" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" s="31"/>
       <c r="C361" s="12" t="s">
         <v>271</v>
@@ -13075,7 +13072,7 @@
         <v>74</v>
       </c>
       <c r="I361" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J361" s="31" t="s">
         <v>155</v>
@@ -13087,10 +13084,10 @@
         <v>0</v>
       </c>
       <c r="N361" s="14" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="362" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B362" s="31"/>
       <c r="C362" s="12" t="s">
         <v>271</v>
@@ -13105,10 +13102,10 @@
         <v>0</v>
       </c>
       <c r="H362" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I362" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J362" s="31" t="s">
         <v>155</v>
@@ -13120,10 +13117,10 @@
         <v>0</v>
       </c>
       <c r="N362" s="14" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="364" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B364" s="31"/>
       <c r="C364" s="12" t="s">
         <v>270</v>
@@ -13149,7 +13146,7 @@
       <c r="M364" s="64"/>
       <c r="N364" s="54"/>
     </row>
-    <row r="365" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B365" s="32"/>
       <c r="C365" s="13" t="s">
         <v>270</v>
@@ -13180,7 +13177,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="366" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B366" s="32"/>
       <c r="C366" s="13" t="s">
         <v>270</v>
@@ -13211,7 +13208,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="367" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="13"/>
       <c r="B367" s="32"/>
       <c r="C367" s="13" t="s">
@@ -13245,7 +13242,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="368" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="13"/>
       <c r="B368" s="32"/>
       <c r="C368" s="13" t="s">
@@ -13279,7 +13276,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="369" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="13"/>
       <c r="B369" s="32"/>
       <c r="C369" s="13" t="s">
@@ -13296,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="H369" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I369" s="18"/>
       <c r="J369" s="32" t="s">
@@ -13308,10 +13305,10 @@
       </c>
       <c r="M369" s="13"/>
       <c r="N369" s="17" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="370" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B370" s="32"/>
       <c r="C370" s="13" t="s">
         <v>270</v>
@@ -13326,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="H370" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I370" s="18"/>
       <c r="J370" s="32" t="s">
@@ -13340,7 +13337,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="371" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="13"/>
       <c r="B371" s="32"/>
       <c r="C371" s="13" t="s">
@@ -13371,10 +13368,10 @@
       </c>
       <c r="M371" s="13"/>
       <c r="N371" s="17" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="372" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="13"/>
       <c r="B372" s="32"/>
       <c r="C372" s="13" t="s">
@@ -13407,10 +13404,10 @@
       </c>
       <c r="M372" s="13"/>
       <c r="N372" s="17" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="373" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B373" s="32"/>
       <c r="C373" s="13" t="s">
         <v>270</v>
@@ -13425,7 +13422,7 @@
         <v>0</v>
       </c>
       <c r="H373" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I373" s="18"/>
       <c r="J373" s="32" t="s">
@@ -13438,10 +13435,10 @@
         <v>0</v>
       </c>
       <c r="N373" s="17" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="374" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B374" s="32"/>
       <c r="C374" s="13" t="s">
         <v>270</v>
@@ -13456,7 +13453,7 @@
         <v>0</v>
       </c>
       <c r="H374" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I374" s="18"/>
       <c r="J374" s="32" t="s">
@@ -13469,10 +13466,10 @@
         <v>0</v>
       </c>
       <c r="N374" s="17" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="375" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B375" s="31"/>
       <c r="C375" s="12" t="s">
         <v>270</v>
@@ -13488,10 +13485,10 @@
       </c>
       <c r="G375" s="15"/>
       <c r="H375" s="65" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I375" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J375" s="62" t="s">
         <v>155</v>
@@ -13504,7 +13501,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="376" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B376" s="31"/>
       <c r="C376" s="13" t="s">
         <v>270</v>
@@ -13519,10 +13516,10 @@
         <v>0</v>
       </c>
       <c r="H376" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I376" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J376" s="31" t="s">
         <v>155</v>
@@ -13534,10 +13531,10 @@
         <v>0</v>
       </c>
       <c r="N376" s="54" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="377" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B377" s="31"/>
       <c r="C377" s="12" t="s">
         <v>270</v>
@@ -13568,7 +13565,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="378" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B378" s="31"/>
       <c r="C378" s="12" t="s">
         <v>270</v>
@@ -13599,7 +13596,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="379" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B379" s="31"/>
       <c r="C379" s="12" t="s">
         <v>270</v>
@@ -13614,7 +13611,7 @@
         <v>270</v>
       </c>
       <c r="H379" s="65" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I379" s="35" t="s">
         <v>104</v>
@@ -13628,7 +13625,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="380" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B380" s="31"/>
       <c r="C380" s="12" t="s">
         <v>270</v>
@@ -13659,7 +13656,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="381" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B381" s="31"/>
       <c r="C381" s="12" t="s">
         <v>270</v>
@@ -13682,10 +13679,10 @@
       <c r="K381" s="31"/>
       <c r="L381" s="50"/>
       <c r="N381" s="66" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="382" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B382" s="31"/>
       <c r="C382" s="12" t="s">
         <v>270</v>
@@ -13703,7 +13700,7 @@
         <v>319</v>
       </c>
       <c r="I382" s="35" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J382" s="62" t="s">
         <v>155</v>
@@ -13718,7 +13715,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="383" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B383" s="31"/>
       <c r="C383" s="12" t="s">
         <v>270</v>
@@ -13733,7 +13730,7 @@
         <v>270</v>
       </c>
       <c r="H383" s="65" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I383" s="35" t="s">
         <v>28</v>
@@ -13747,7 +13744,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="384" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B384" s="31"/>
       <c r="C384" s="12" t="s">
         <v>270</v>
@@ -13776,7 +13773,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="385" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B385" s="31"/>
       <c r="C385" s="12" t="s">
         <v>270</v>
@@ -13788,7 +13785,7 @@
         <v>270</v>
       </c>
       <c r="H385" s="65" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I385" s="35" t="s">
         <v>291</v>
@@ -13802,7 +13799,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="386" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B386" s="31"/>
       <c r="C386" s="12" t="s">
         <v>270</v>
@@ -13831,7 +13828,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="387" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B387" s="31"/>
       <c r="C387" s="12" t="s">
         <v>270</v>
@@ -13858,7 +13855,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="388" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="13"/>
       <c r="B388" s="32"/>
       <c r="C388" s="13" t="s">
@@ -13875,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="H388" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I388" s="18"/>
       <c r="J388" s="32" t="s">
@@ -13889,10 +13886,10 @@
       </c>
       <c r="M388" s="13"/>
       <c r="N388" s="17" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="389" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" s="13"/>
       <c r="B389" s="32"/>
       <c r="C389" s="13" t="s">
@@ -13909,7 +13906,7 @@
         <v>0</v>
       </c>
       <c r="H389" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I389" s="18"/>
       <c r="J389" s="32" t="s">
@@ -13923,10 +13920,10 @@
       </c>
       <c r="M389" s="13"/>
       <c r="N389" s="17" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="390" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B390" s="31"/>
       <c r="C390" s="12" t="s">
         <v>270</v>
@@ -13957,7 +13954,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="391" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="13"/>
       <c r="B391" s="32"/>
       <c r="C391" s="13" t="s">
@@ -13991,7 +13988,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="392" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B392" s="31"/>
       <c r="C392" s="12" t="s">
         <v>270</v>
@@ -14009,7 +14006,7 @@
         <v>93</v>
       </c>
       <c r="I392" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J392" s="31" t="s">
         <v>155</v>
@@ -14024,7 +14021,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="393" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B393" s="31"/>
       <c r="C393" s="12" t="s">
         <v>270</v>
@@ -14055,7 +14052,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="394" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="13"/>
       <c r="B394" s="32"/>
       <c r="C394" s="13" t="s">
@@ -14089,7 +14086,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="395" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B395" s="32"/>
       <c r="C395" s="13" t="s">
         <v>270</v>
@@ -14107,7 +14104,7 @@
         <v>93</v>
       </c>
       <c r="I395" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J395" s="31" t="s">
         <v>155</v>
@@ -14122,7 +14119,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="396" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B396" s="31"/>
       <c r="C396" s="12" t="s">
         <v>270</v>
@@ -14153,7 +14150,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="397" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="13"/>
       <c r="B397" s="32"/>
       <c r="C397" s="13" t="s">
@@ -14187,7 +14184,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="398" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B398" s="31"/>
       <c r="C398" s="12" t="s">
         <v>270</v>
@@ -14205,7 +14202,7 @@
         <v>93</v>
       </c>
       <c r="I398" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J398" s="31" t="s">
         <v>155</v>
@@ -14220,7 +14217,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="399" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B399" s="31"/>
       <c r="C399" s="12" t="s">
         <v>270</v>
@@ -14235,7 +14232,7 @@
         <v>270</v>
       </c>
       <c r="H399" s="65" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I399" s="35"/>
       <c r="J399" s="62" t="s">
@@ -14249,7 +14246,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="400" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B400" s="31"/>
       <c r="C400" s="12" t="s">
         <v>270</v>
@@ -14258,7 +14255,7 @@
         <v>2</v>
       </c>
       <c r="F400" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G400" s="15"/>
       <c r="H400" s="24" t="s">
@@ -14276,7 +14273,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="401" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="13"/>
       <c r="B401" s="32"/>
       <c r="C401" s="13" t="s">
@@ -14303,10 +14300,10 @@
       </c>
       <c r="M401" s="13"/>
       <c r="N401" s="17" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="402" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B402" s="32"/>
       <c r="C402" s="13" t="s">
         <v>270</v>
@@ -14335,7 +14332,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="403" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B403" s="32"/>
       <c r="C403" s="13" t="s">
         <v>270</v>
@@ -14364,7 +14361,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="404" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A404" s="13"/>
       <c r="B404" s="32"/>
       <c r="C404" s="13" t="s">
@@ -14396,7 +14393,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="405" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B405" s="31"/>
       <c r="C405" s="12" t="s">
         <v>270</v>
@@ -14405,7 +14402,7 @@
         <v>2</v>
       </c>
       <c r="F405" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G405" s="15"/>
       <c r="H405" s="24" t="s">
@@ -14421,7 +14418,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="406" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B406" s="32"/>
       <c r="C406" s="13" t="s">
         <v>270</v>
@@ -14450,7 +14447,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="407" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B407" s="32"/>
       <c r="C407" s="13" t="s">
         <v>270</v>
@@ -14479,7 +14476,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="408" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="12"/>
       <c r="B408" s="31"/>
       <c r="C408" s="12" t="s">
@@ -14490,7 +14487,7 @@
         <v>2</v>
       </c>
       <c r="F408" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G408" s="15"/>
       <c r="H408" s="24" t="s">
@@ -14507,7 +14504,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="409" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B409" s="32"/>
       <c r="C409" s="13" t="s">
         <v>270</v>
@@ -14536,7 +14533,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="410" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B410" s="32"/>
       <c r="C410" s="13" t="s">
         <v>270</v>
@@ -14565,7 +14562,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="411" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B411" s="31"/>
       <c r="C411" s="12" t="s">
         <v>270</v>
@@ -14581,7 +14578,7 @@
         <v>93</v>
       </c>
       <c r="I411" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J411" s="31" t="s">
         <v>155</v>
@@ -14594,7 +14591,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="412" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="13"/>
       <c r="B412" s="32"/>
       <c r="C412" s="13" t="s">
@@ -14621,10 +14618,10 @@
       </c>
       <c r="M412" s="13"/>
       <c r="N412" s="17" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="413" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" s="13"/>
       <c r="B413" s="32"/>
       <c r="C413" s="13" t="s">
@@ -14654,7 +14651,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="414" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B414" s="31"/>
       <c r="C414" s="12" t="s">
         <v>270</v>
@@ -14669,7 +14666,7 @@
         <v>270</v>
       </c>
       <c r="H414" s="65" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I414" s="35"/>
       <c r="J414" s="62" t="s">
@@ -14683,7 +14680,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="415" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B415" s="31"/>
       <c r="C415" s="12" t="s">
         <v>270</v>
@@ -14692,7 +14689,7 @@
         <v>2</v>
       </c>
       <c r="F415" s="35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G415" s="15"/>
       <c r="H415" s="24" t="s">
@@ -14712,7 +14709,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="416" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B416" s="31"/>
       <c r="C416" s="12" t="s">
         <v>270</v>
@@ -14730,7 +14727,7 @@
         <v>137</v>
       </c>
       <c r="I416" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J416" s="31" t="s">
         <v>155</v>
@@ -14740,10 +14737,10 @@
         <v>0</v>
       </c>
       <c r="N416" s="14" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="417" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="417" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B417" s="31"/>
       <c r="C417" s="12" t="s">
         <v>270</v>
@@ -14761,7 +14758,7 @@
         <v>138</v>
       </c>
       <c r="I417" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J417" s="31" t="s">
         <v>155</v>
@@ -14771,10 +14768,10 @@
         <v>0</v>
       </c>
       <c r="N417" s="14" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="418" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="418" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B418" s="31"/>
       <c r="C418" s="12" t="s">
         <v>270</v>
@@ -14792,7 +14789,7 @@
         <v>139</v>
       </c>
       <c r="I418" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J418" s="31" t="s">
         <v>155</v>
@@ -14804,10 +14801,10 @@
         <v>0</v>
       </c>
       <c r="N418" s="14" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="419" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="419" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B419" s="31"/>
       <c r="C419" s="12" t="s">
         <v>270</v>
@@ -14825,7 +14822,7 @@
         <v>135</v>
       </c>
       <c r="I419" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J419" s="31" t="s">
         <v>155</v>
@@ -14835,10 +14832,10 @@
         <v>0</v>
       </c>
       <c r="N419" s="14" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="420" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="420" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B420" s="31"/>
       <c r="C420" s="12" t="s">
         <v>270</v>
@@ -14856,7 +14853,7 @@
         <v>136</v>
       </c>
       <c r="I420" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J420" s="31" t="s">
         <v>155</v>
@@ -14866,10 +14863,10 @@
         <v>0</v>
       </c>
       <c r="N420" s="14" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="421" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="421" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B421" s="31"/>
       <c r="C421" s="12" t="s">
         <v>270</v>
@@ -14884,10 +14881,10 @@
         <v>0</v>
       </c>
       <c r="H421" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I421" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J421" s="31" t="s">
         <v>155</v>
@@ -14899,10 +14896,10 @@
         <v>0</v>
       </c>
       <c r="N421" s="14" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="422" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="422" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B422" s="31"/>
       <c r="C422" s="12" t="s">
         <v>270</v>
@@ -14911,7 +14908,7 @@
         <v>2</v>
       </c>
       <c r="F422" s="35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G422" s="15"/>
       <c r="H422" s="24" t="s">
@@ -14929,7 +14926,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="423" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B423" s="31"/>
       <c r="C423" s="12" t="s">
         <v>270</v>
@@ -14947,7 +14944,7 @@
         <v>137</v>
       </c>
       <c r="I423" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J423" s="31" t="s">
         <v>155</v>
@@ -14957,10 +14954,10 @@
         <v>0</v>
       </c>
       <c r="N423" s="14" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="424" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="424" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B424" s="31"/>
       <c r="C424" s="12" t="s">
         <v>270</v>
@@ -14978,7 +14975,7 @@
         <v>138</v>
       </c>
       <c r="I424" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J424" s="31" t="s">
         <v>155</v>
@@ -14988,10 +14985,10 @@
         <v>0</v>
       </c>
       <c r="N424" s="14" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="425" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="425" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B425" s="31"/>
       <c r="C425" s="12" t="s">
         <v>270</v>
@@ -15009,7 +15006,7 @@
         <v>139</v>
       </c>
       <c r="I425" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J425" s="31" t="s">
         <v>155</v>
@@ -15021,10 +15018,10 @@
         <v>0</v>
       </c>
       <c r="N425" s="14" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="426" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="426" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B426" s="31"/>
       <c r="C426" s="12" t="s">
         <v>270</v>
@@ -15042,7 +15039,7 @@
         <v>135</v>
       </c>
       <c r="I426" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J426" s="31" t="s">
         <v>155</v>
@@ -15052,10 +15049,10 @@
         <v>0</v>
       </c>
       <c r="N426" s="14" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="427" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="427" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B427" s="31"/>
       <c r="C427" s="12" t="s">
         <v>270</v>
@@ -15073,7 +15070,7 @@
         <v>136</v>
       </c>
       <c r="I427" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J427" s="31" t="s">
         <v>155</v>
@@ -15083,10 +15080,10 @@
         <v>0</v>
       </c>
       <c r="N427" s="14" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="428" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="428" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B428" s="31"/>
       <c r="C428" s="12" t="s">
         <v>270</v>
@@ -15101,10 +15098,10 @@
         <v>0</v>
       </c>
       <c r="H428" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I428" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J428" s="31" t="s">
         <v>155</v>
@@ -15116,10 +15113,10 @@
         <v>0</v>
       </c>
       <c r="N428" s="14" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="429" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="429" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B429" s="31"/>
       <c r="C429" s="12" t="s">
         <v>270</v>
@@ -15148,7 +15145,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="430" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B430" s="31"/>
       <c r="C430" s="12" t="s">
         <v>270</v>
@@ -15166,7 +15163,7 @@
         <v>140</v>
       </c>
       <c r="I430" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J430" s="31" t="s">
         <v>155</v>
@@ -15181,7 +15178,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="431" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B431" s="31"/>
       <c r="C431" s="12" t="s">
         <v>270</v>
@@ -15199,7 +15196,7 @@
         <v>141</v>
       </c>
       <c r="I431" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J431" s="31" t="s">
         <v>155</v>
@@ -15214,7 +15211,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="432" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B432" s="31"/>
       <c r="C432" s="12" t="s">
         <v>270</v>
@@ -15232,7 +15229,7 @@
         <v>142</v>
       </c>
       <c r="I432" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J432" s="31" t="s">
         <v>155</v>
@@ -15247,7 +15244,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="433" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B433" s="31"/>
       <c r="C433" s="12" t="s">
         <v>270</v>
@@ -15262,7 +15259,7 @@
         <v>270</v>
       </c>
       <c r="H433" s="65" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I433" s="35"/>
       <c r="J433" s="62" t="s">
@@ -15271,10 +15268,10 @@
       <c r="K433" s="31"/>
       <c r="L433" s="50"/>
       <c r="N433" s="66" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="434" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="434" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B434" s="32"/>
       <c r="C434" s="13" t="s">
         <v>270</v>
@@ -15283,7 +15280,7 @@
         <v>2</v>
       </c>
       <c r="F434" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G434" s="18" t="s">
         <v>0</v>
@@ -15305,7 +15302,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="435" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B435" s="32"/>
       <c r="C435" s="13" t="s">
         <v>270</v>
@@ -15314,7 +15311,7 @@
         <v>2</v>
       </c>
       <c r="F435" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G435" s="18" t="s">
         <v>0</v>
@@ -15334,7 +15331,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="436" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B436" s="32"/>
       <c r="C436" s="13" t="s">
         <v>270</v>
@@ -15343,7 +15340,7 @@
         <v>2</v>
       </c>
       <c r="F436" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G436" s="18" t="s">
         <v>0</v>
@@ -15365,7 +15362,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="437" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B437" s="32"/>
       <c r="C437" s="13" t="s">
         <v>270</v>
@@ -15374,7 +15371,7 @@
         <v>2</v>
       </c>
       <c r="F437" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G437" s="18" t="s">
         <v>0</v>
@@ -15396,7 +15393,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="438" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B438" s="31"/>
       <c r="C438" s="12" t="s">
         <v>270</v>
@@ -15405,7 +15402,7 @@
         <v>2</v>
       </c>
       <c r="F438" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G438" s="15" t="s">
         <v>0</v>
@@ -15424,10 +15421,10 @@
         <v>0</v>
       </c>
       <c r="N438" s="14" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="439" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="439" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B439" s="31"/>
       <c r="C439" s="12" t="s">
         <v>270</v>
@@ -15442,7 +15439,7 @@
         <v>270</v>
       </c>
       <c r="H439" s="65" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I439" s="35"/>
       <c r="J439" s="62" t="s">
@@ -15451,10 +15448,10 @@
       <c r="K439" s="31"/>
       <c r="L439" s="50"/>
       <c r="N439" s="66" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="440" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="440" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B440" s="32"/>
       <c r="C440" s="13" t="s">
         <v>270</v>
@@ -15463,7 +15460,7 @@
         <v>2</v>
       </c>
       <c r="F440" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G440" s="18" t="s">
         <v>0</v>
@@ -15485,7 +15482,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="441" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B441" s="32"/>
       <c r="C441" s="13" t="s">
         <v>270</v>
@@ -15494,7 +15491,7 @@
         <v>2</v>
       </c>
       <c r="F441" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G441" s="18" t="s">
         <v>0</v>
@@ -15514,7 +15511,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="442" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B442" s="32"/>
       <c r="C442" s="13" t="s">
         <v>270</v>
@@ -15523,7 +15520,7 @@
         <v>2</v>
       </c>
       <c r="F442" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G442" s="18" t="s">
         <v>0</v>
@@ -15545,7 +15542,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="443" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B443" s="32"/>
       <c r="C443" s="13" t="s">
         <v>270</v>
@@ -15554,7 +15551,7 @@
         <v>2</v>
       </c>
       <c r="F443" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G443" s="18" t="s">
         <v>0</v>
@@ -15576,7 +15573,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="444" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B444" s="31"/>
       <c r="C444" s="12" t="s">
         <v>270</v>
@@ -15585,7 +15582,7 @@
         <v>2</v>
       </c>
       <c r="F444" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G444" s="15" t="s">
         <v>0</v>
@@ -15604,10 +15601,10 @@
         <v>0</v>
       </c>
       <c r="N444" s="14" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="445" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="445" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B445" s="32"/>
       <c r="C445" s="13" t="s">
         <v>270</v>
@@ -15637,10 +15634,10 @@
         <v>0</v>
       </c>
       <c r="N445" s="17" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="446" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="446" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B446" s="32"/>
       <c r="C446" s="13" t="s">
         <v>270</v>
@@ -15670,10 +15667,10 @@
         <v>0</v>
       </c>
       <c r="N446" s="17" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="447" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="447" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B447" s="32"/>
       <c r="C447" s="13" t="s">
         <v>270</v>
@@ -15703,10 +15700,10 @@
         <v>0</v>
       </c>
       <c r="N447" s="17" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="448" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="448" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B448" s="31"/>
       <c r="C448" s="12" t="s">
         <v>270</v>
@@ -15724,7 +15721,7 @@
         <v>72</v>
       </c>
       <c r="I448" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J448" s="31" t="s">
         <v>155</v>
@@ -15736,10 +15733,10 @@
         <v>0</v>
       </c>
       <c r="N448" s="14" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="449" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B449" s="31"/>
       <c r="C449" s="12" t="s">
         <v>270</v>
@@ -15757,7 +15754,7 @@
         <v>131</v>
       </c>
       <c r="I449" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J449" s="31" t="s">
         <v>155</v>
@@ -15769,10 +15766,10 @@
         <v>0</v>
       </c>
       <c r="N449" s="14" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="450" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B450" s="31"/>
       <c r="C450" s="12" t="s">
         <v>270</v>
@@ -15790,7 +15787,7 @@
         <v>73</v>
       </c>
       <c r="I450" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J450" s="31" t="s">
         <v>155</v>
@@ -15802,10 +15799,10 @@
         <v>0</v>
       </c>
       <c r="N450" s="14" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="451" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B451" s="31"/>
       <c r="C451" s="12" t="s">
         <v>270</v>
@@ -15823,7 +15820,7 @@
         <v>132</v>
       </c>
       <c r="I451" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J451" s="31" t="s">
         <v>155</v>
@@ -15835,10 +15832,10 @@
         <v>0</v>
       </c>
       <c r="N451" s="14" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="452" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B452" s="31"/>
       <c r="C452" s="12" t="s">
         <v>270</v>
@@ -15856,7 +15853,7 @@
         <v>74</v>
       </c>
       <c r="I452" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J452" s="31" t="s">
         <v>155</v>
@@ -15868,10 +15865,10 @@
         <v>0</v>
       </c>
       <c r="N452" s="14" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="453" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B453" s="31"/>
       <c r="C453" s="12" t="s">
         <v>270</v>
@@ -15886,10 +15883,10 @@
         <v>0</v>
       </c>
       <c r="H453" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I453" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J453" s="31" t="s">
         <v>155</v>
@@ -15901,10 +15898,10 @@
         <v>0</v>
       </c>
       <c r="N453" s="14" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="455" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A455" s="12"/>
       <c r="B455" s="31"/>
       <c r="C455" s="12" t="s">
@@ -15930,10 +15927,10 @@
       </c>
       <c r="M455" s="12"/>
       <c r="N455" s="14" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="456" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B456" s="32"/>
       <c r="C456" s="13" t="s">
         <v>272</v>
@@ -15964,7 +15961,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="457" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B457" s="32"/>
       <c r="C457" s="13" t="s">
         <v>272</v>
@@ -15995,7 +15992,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="458" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B458" s="31"/>
       <c r="C458" s="12" t="s">
         <v>272</v>
@@ -16010,7 +16007,7 @@
         <v>0</v>
       </c>
       <c r="H458" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I458" s="15" t="s">
         <v>271</v>
@@ -16025,10 +16022,10 @@
         <v>0</v>
       </c>
       <c r="N458" s="14" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="459" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B459" s="31"/>
       <c r="C459" s="12" t="s">
         <v>272</v>
@@ -16043,7 +16040,7 @@
         <v>5</v>
       </c>
       <c r="H459" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I459" s="15" t="s">
         <v>270</v>
@@ -16058,10 +16055,10 @@
         <v>17</v>
       </c>
       <c r="N459" s="14" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="460" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B460" s="32"/>
       <c r="C460" s="13" t="s">
         <v>272</v>
@@ -16087,10 +16084,10 @@
         <v>0</v>
       </c>
       <c r="N460" s="17" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="461" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B461" s="32"/>
       <c r="C461" s="13" t="s">
         <v>272</v>
@@ -16116,10 +16113,10 @@
         <v>0</v>
       </c>
       <c r="N461" s="17" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="462" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B462" s="31"/>
       <c r="C462" s="12" t="s">
         <v>272</v>
@@ -16137,7 +16134,7 @@
         <v>73</v>
       </c>
       <c r="I462" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J462" s="31" t="s">
         <v>155</v>
@@ -16147,10 +16144,10 @@
         <v>0</v>
       </c>
       <c r="N462" s="14" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="464" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="464" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A464" s="12"/>
       <c r="B464" s="31"/>
       <c r="C464" s="12" t="s">
@@ -16183,7 +16180,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="465" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B465" s="32"/>
       <c r="C465" s="13" t="s">
         <v>30</v>
@@ -16214,7 +16211,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="466" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B466" s="32"/>
       <c r="C466" s="13" t="s">
         <v>30</v>
@@ -16247,7 +16244,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="467" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A467" s="13"/>
       <c r="B467" s="32"/>
       <c r="C467" s="13" t="s">
@@ -16281,7 +16278,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="468" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A468" s="13"/>
       <c r="B468" s="32"/>
       <c r="C468" s="13" t="s">
@@ -16296,7 +16293,7 @@
       </c>
       <c r="G468" s="18"/>
       <c r="H468" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I468" s="18" t="s">
         <v>0</v>
@@ -16310,10 +16307,10 @@
       </c>
       <c r="M468" s="13"/>
       <c r="N468" s="17" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="469" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A469" s="13"/>
       <c r="B469" s="32"/>
       <c r="C469" s="13" t="s">
@@ -16347,7 +16344,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="470" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B470" s="31"/>
       <c r="C470" s="13" t="s">
         <v>30</v>
@@ -16361,10 +16358,10 @@
       </c>
       <c r="G470" s="15"/>
       <c r="H470" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I470" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J470" s="31" t="s">
         <v>155</v>
@@ -16374,13 +16371,13 @@
         <v>17</v>
       </c>
       <c r="N470" s="14" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="472" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B472" s="31"/>
       <c r="C472" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D472" s="13"/>
       <c r="E472" s="50">
@@ -16391,7 +16388,7 @@
       </c>
       <c r="G472" s="15"/>
       <c r="H472" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I472" s="15"/>
       <c r="J472" s="31" t="s">
@@ -16401,16 +16398,16 @@
       <c r="L472" s="31"/>
       <c r="N472" s="14"/>
     </row>
-    <row r="473" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B473" s="32"/>
       <c r="C473" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E473" s="51">
         <v>1</v>
       </c>
       <c r="F473" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G473" s="18"/>
       <c r="H473" s="16" t="s">
@@ -16426,20 +16423,20 @@
         <v>231</v>
       </c>
     </row>
-    <row r="474" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B474" s="32"/>
       <c r="C474" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E474" s="51">
         <v>1</v>
       </c>
       <c r="F474" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G474" s="18"/>
       <c r="H474" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I474" s="18"/>
       <c r="J474" s="32" t="s">
@@ -16448,28 +16445,28 @@
       <c r="K474" s="32"/>
       <c r="L474" s="32"/>
       <c r="N474" s="17" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="475" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B475" s="31"/>
       <c r="C475" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E475" s="50">
+        <v>1</v>
+      </c>
+      <c r="F475" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="G475" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H475" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="E475" s="50">
-        <v>1</v>
-      </c>
-      <c r="F475" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="G475" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H475" s="20" t="s">
-        <v>511</v>
-      </c>
       <c r="I475" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J475" s="31" t="s">
         <v>155</v>
@@ -16479,10 +16476,10 @@
         <v>17</v>
       </c>
       <c r="N475" s="14" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N476" s="44"/>
     </row>
   </sheetData>
